--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_3.6E-09_15 s_724 TPD_output Acetic acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_3.6E-09_15 s_724 TPD_output Acetic acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F231"/>
+  <dimension ref="A1:F210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4602 +417,4182 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>98.59999999999999</v>
+        <v>112.2</v>
       </c>
       <c r="B2">
-        <v>25345.64608019217</v>
+        <v>77378.20555013599</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>13362.16915750381</v>
       </c>
       <c r="D2">
-        <v>4904.79306412567</v>
+        <v>77791.21285952632</v>
       </c>
       <c r="E2">
-        <v>288.9009029541478</v>
+        <v>3652.174506770376</v>
       </c>
       <c r="F2">
-        <v>580.0408875785407</v>
+        <v>2640.700913628223</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>98.59999999999999</v>
+        <v>114.6</v>
       </c>
       <c r="B3">
-        <v>7485.646080192171</v>
+        <v>77865.45094727102</v>
       </c>
       <c r="C3">
-        <v>2100</v>
+        <v>11632.64948289313</v>
       </c>
       <c r="D3">
-        <v>6124.79306412567</v>
+        <v>78030.58745106547</v>
       </c>
       <c r="E3">
-        <v>1038.900902954148</v>
+        <v>3979.935653139403</v>
       </c>
       <c r="F3">
-        <v>810.0408875785407</v>
+        <v>1462.892927489425</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>98.59999999999999</v>
+        <v>117.2</v>
       </c>
       <c r="B4">
-        <v>13095.64608019217</v>
+        <v>72829.13346083405</v>
       </c>
       <c r="C4">
-        <v>2360</v>
+        <v>7932.336502064881</v>
       </c>
       <c r="D4">
-        <v>5514.79306412567</v>
+        <v>73281.57659189955</v>
       </c>
       <c r="E4">
-        <v>1448.900902954148</v>
+        <v>3215.843561705844</v>
       </c>
       <c r="F4">
-        <v>770.0408875785407</v>
+        <v>1756.934275839064</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>98.59999999999999</v>
+        <v>119.8</v>
       </c>
       <c r="B5">
-        <v>10535.64608019217</v>
+        <v>60302.8159743971</v>
       </c>
       <c r="C5">
-        <v>3050</v>
+        <v>6842.023521236633</v>
       </c>
       <c r="D5">
-        <v>6184.79306412567</v>
+        <v>69302.56573273361</v>
       </c>
       <c r="E5">
-        <v>1858.900902954148</v>
+        <v>3231.751470272288</v>
       </c>
       <c r="F5">
-        <v>930.0408875785407</v>
+        <v>1040.975624188699</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>98.59999999999999</v>
+        <v>122.8</v>
       </c>
       <c r="B6">
-        <v>5475.646080192171</v>
+        <v>54879.3727208159</v>
       </c>
       <c r="C6">
-        <v>2850</v>
+        <v>4800.123927973284</v>
       </c>
       <c r="D6">
-        <v>6794.79306412567</v>
+        <v>64566.78397215754</v>
       </c>
       <c r="E6">
-        <v>1658.900902954148</v>
+        <v>3173.952903233566</v>
       </c>
       <c r="F6">
-        <v>1410.040887578541</v>
+        <v>508.7156415152022</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>98.59999999999999</v>
+        <v>125.5</v>
       </c>
       <c r="B7">
-        <v>7735.646080192171</v>
+        <v>41541.27379259293</v>
       </c>
       <c r="C7">
-        <v>3530</v>
+        <v>3439.414294036261</v>
       </c>
       <c r="D7">
-        <v>9284.79306412567</v>
+        <v>57913.58038763907</v>
       </c>
       <c r="E7">
-        <v>2048.900902954148</v>
+        <v>2653.934192898717</v>
       </c>
       <c r="F7">
-        <v>1020.040887578541</v>
+        <v>213.6816571090558</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>98.59999999999999</v>
+        <v>128.1</v>
       </c>
       <c r="B8">
-        <v>11565.64608019217</v>
+        <v>33544.95630615585</v>
       </c>
       <c r="C8">
-        <v>4140</v>
+        <v>2039.101313208015</v>
       </c>
       <c r="D8">
-        <v>8294.79306412567</v>
+        <v>49034.56952847315</v>
       </c>
       <c r="E8">
-        <v>2198.900902954148</v>
+        <v>2099.842101465161</v>
       </c>
       <c r="F8">
-        <v>1390.040887578541</v>
+        <v>177.7230054586919</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>98.5</v>
+        <v>130.7</v>
       </c>
       <c r="B9">
-        <v>9052.946378107321</v>
+        <v>22138.63881971889</v>
       </c>
       <c r="C9">
-        <v>5853.610672813722</v>
+        <v>2688.788332379783</v>
       </c>
       <c r="D9">
-        <v>7330.867309886889</v>
+        <v>42355.55866930721</v>
       </c>
       <c r="E9">
-        <v>2155.694055291091</v>
+        <v>2875.750010031606</v>
       </c>
       <c r="F9">
-        <v>1299.722395209851</v>
+        <v>21.764353808328</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>98.5</v>
+        <v>133.3</v>
       </c>
       <c r="B10">
-        <v>5052.946378107321</v>
+        <v>23072.32133328193</v>
       </c>
       <c r="C10">
-        <v>5513.610672813722</v>
+        <v>528.4753515515185</v>
       </c>
       <c r="D10">
-        <v>7080.867309886889</v>
+        <v>35266.54781014129</v>
       </c>
       <c r="E10">
-        <v>1605.694055291091</v>
+        <v>3031.657918598046</v>
       </c>
       <c r="F10">
-        <v>1109.722395209851</v>
+        <v>265.8057021579659</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>98.5</v>
+        <v>135.7</v>
       </c>
       <c r="B11">
-        <v>15482.94637810732</v>
+        <v>16359.56673041697</v>
       </c>
       <c r="C11">
-        <v>5163.610672813722</v>
+        <v>608.9556769408409</v>
       </c>
       <c r="D11">
-        <v>8680.867309886889</v>
+        <v>29365.92240168043</v>
       </c>
       <c r="E11">
-        <v>2225.694055291091</v>
+        <v>2249.419064967074</v>
       </c>
       <c r="F11">
-        <v>1329.722395209851</v>
+        <v>597.9977160191688</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>98.5</v>
+        <v>138.4</v>
       </c>
       <c r="B12">
-        <v>6022.946378107321</v>
+        <v>16801.46780219401</v>
       </c>
       <c r="C12">
-        <v>5663.610672813722</v>
+        <v>738.2460430038172</v>
       </c>
       <c r="D12">
-        <v>14560.86730988689</v>
+        <v>24222.71881716196</v>
       </c>
       <c r="E12">
-        <v>2695.694055291091</v>
+        <v>2309.400354632225</v>
       </c>
       <c r="F12">
-        <v>1579.722395209851</v>
+        <v>82.96373161302063</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>98.59999999999999</v>
+        <v>140.7</v>
       </c>
       <c r="B13">
-        <v>7315.646080192171</v>
+        <v>10510.49464111504</v>
       </c>
       <c r="C13">
-        <v>6960</v>
+        <v>489.1230215019132</v>
       </c>
       <c r="D13">
-        <v>31124.79306412567</v>
+        <v>18476.28613405365</v>
       </c>
       <c r="E13">
-        <v>3638.900902954148</v>
+        <v>1853.088119902541</v>
       </c>
       <c r="F13">
-        <v>3430.040887578541</v>
+        <v>324.2310782300078</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>98.90000000000001</v>
+        <v>143</v>
       </c>
       <c r="B14">
-        <v>16323.74518644661</v>
+        <v>8439.521480036201</v>
       </c>
       <c r="C14">
-        <v>11619.16798155881</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>43236.570326842</v>
+        <v>14559.85345094535</v>
       </c>
       <c r="E14">
-        <v>3928.521445943326</v>
+        <v>1686.775885172854</v>
       </c>
       <c r="F14">
-        <v>2850.996364684609</v>
+        <v>185.4984248469932</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>99.59999999999999</v>
+        <v>145.2</v>
       </c>
       <c r="B15">
-        <v>40212.64310104058</v>
+        <v>5790.329760743363</v>
       </c>
       <c r="C15">
-        <v>20503.89327186271</v>
+        <v>1351.27363160688</v>
       </c>
       <c r="D15">
-        <v>43304.05060651347</v>
+        <v>13267.61349318955</v>
       </c>
       <c r="E15">
-        <v>4070.969379584743</v>
+        <v>2706.390269344461</v>
       </c>
       <c r="F15">
-        <v>2563.225811265438</v>
+        <v>405.8411042197627</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>100.6</v>
+        <v>147.4</v>
       </c>
       <c r="B16">
-        <v>45039.64012188887</v>
+        <v>621.1380414505256</v>
       </c>
       <c r="C16">
-        <v>13247.78654372542</v>
+        <v>902.5472632137353</v>
       </c>
       <c r="D16">
-        <v>51503.30814890127</v>
+        <v>10775.37353543377</v>
       </c>
       <c r="E16">
-        <v>4093.037856215335</v>
+        <v>2706.004653516064</v>
       </c>
       <c r="F16">
-        <v>1956.410734952336</v>
+        <v>956.1837835925323</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>102</v>
+        <v>149.6</v>
       </c>
       <c r="B17">
-        <v>47967.43595107669</v>
+        <v>1331.946322157673</v>
       </c>
       <c r="C17">
-        <v>11387.23712433322</v>
+        <v>1793.820894820608</v>
       </c>
       <c r="D17">
-        <v>85718.26870824416</v>
+        <v>7843.133577677974</v>
       </c>
       <c r="E17">
-        <v>6267.933723498166</v>
+        <v>2365.61903768767</v>
       </c>
       <c r="F17">
-        <v>1770.869628113996</v>
+        <v>1016.526462965302</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>103.7</v>
+        <v>152.1</v>
       </c>
       <c r="B18">
-        <v>64293.33088651895</v>
+        <v>4147.410277506715</v>
       </c>
       <c r="C18">
-        <v>11135.85568649982</v>
+        <v>2483.904567101152</v>
       </c>
       <c r="D18">
-        <v>102015.0065303034</v>
+        <v>7538.315443864587</v>
       </c>
       <c r="E18">
-        <v>6552.450133770175</v>
+        <v>2327.453565155404</v>
       </c>
       <c r="F18">
-        <v>1346.283998381723</v>
+        <v>2399.643144070722</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>105.4</v>
+        <v>154.2</v>
       </c>
       <c r="B19">
-        <v>70789.2258219612</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>13134.47424866643</v>
+        <v>3435.574851816799</v>
       </c>
       <c r="D19">
-        <v>105411.7443523627</v>
+        <v>6570.268211461342</v>
       </c>
       <c r="E19">
-        <v>5716.966544042184</v>
+        <v>3042.9945682283</v>
       </c>
       <c r="F19">
-        <v>1491.69836864945</v>
+        <v>3679.061156199274</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>107.4</v>
+        <v>156.4</v>
       </c>
       <c r="B20">
-        <v>86673.21986365801</v>
+        <v>4350.808280707148</v>
       </c>
       <c r="C20">
-        <v>17422.26079239185</v>
+        <v>4976.848483423671</v>
       </c>
       <c r="D20">
-        <v>109380.2594371382</v>
+        <v>7748.028253705561</v>
       </c>
       <c r="E20">
-        <v>5501.103497303372</v>
+        <v>3382.608952399906</v>
       </c>
       <c r="F20">
-        <v>1358.068216023248</v>
+        <v>4789.403835572044</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>109.9</v>
+        <v>158.5</v>
       </c>
       <c r="B21">
-        <v>97950.71241577898</v>
+        <v>1303.398003200316</v>
       </c>
       <c r="C21">
-        <v>20741.99397204862</v>
+        <v>5238.518768139318</v>
       </c>
       <c r="D21">
-        <v>113458.4032931077</v>
+        <v>8019.981021302316</v>
       </c>
       <c r="E21">
-        <v>5201.274688879855</v>
+        <v>3928.149955472803</v>
       </c>
       <c r="F21">
-        <v>2776.030525240496</v>
+        <v>4938.821847700594</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>112.2</v>
+        <v>160.7</v>
       </c>
       <c r="B22">
-        <v>91592.80556373023</v>
+        <v>3204.206283907464</v>
       </c>
       <c r="C22">
-        <v>20778.94849733286</v>
+        <v>5769.79239974619</v>
       </c>
       <c r="D22">
-        <v>114358.6956405996</v>
+        <v>7577.74106354652</v>
       </c>
       <c r="E22">
-        <v>5445.032185130217</v>
+        <v>3567.764339644409</v>
       </c>
       <c r="F22">
-        <v>4223.355849720362</v>
+        <v>4049.164527073366</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>114.6</v>
+        <v>163.2</v>
       </c>
       <c r="B23">
-        <v>91707.59841376633</v>
+        <v>5619.670239256506</v>
       </c>
       <c r="C23">
-        <v>18972.29234980337</v>
+        <v>5809.876072026719</v>
       </c>
       <c r="D23">
-        <v>114072.9137423303</v>
+        <v>5272.922929733133</v>
       </c>
       <c r="E23">
-        <v>5751.996529043643</v>
+        <v>2949.598867112139</v>
       </c>
       <c r="F23">
-        <v>3030.99966656892</v>
+        <v>2282.281208178784</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>117.2</v>
+        <v>165.3</v>
       </c>
       <c r="B24">
-        <v>86267.79066797215</v>
+        <v>5772.259961749791</v>
       </c>
       <c r="C24">
-        <v>15188.41485664641</v>
+        <v>4951.546356742366</v>
       </c>
       <c r="D24">
-        <v>108754.9833525386</v>
+        <v>4874.875697329873</v>
       </c>
       <c r="E24">
-        <v>4965.374568283184</v>
+        <v>2625.139870185038</v>
       </c>
       <c r="F24">
-        <v>3309.280468154856</v>
+        <v>1931.699220307338</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>119.8</v>
+        <v>167.5</v>
       </c>
       <c r="B25">
-        <v>73337.98292217797</v>
+        <v>9513.068242456939</v>
       </c>
       <c r="C25">
-        <v>14014.53736348946</v>
+        <v>5272.819988349238</v>
       </c>
       <c r="D25">
-        <v>104207.0529627469</v>
+        <v>3662.635739574092</v>
       </c>
       <c r="E25">
-        <v>4958.752607522732</v>
+        <v>2674.754254356645</v>
       </c>
       <c r="F25">
-        <v>2577.561269740794</v>
+        <v>1632.041899680106</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>122.8</v>
+        <v>169.7</v>
       </c>
       <c r="B26">
-        <v>67448.97398472318</v>
+        <v>8013.876523164101</v>
       </c>
       <c r="C26">
-        <v>11876.2171790776</v>
+        <v>6174.093619956109</v>
       </c>
       <c r="D26">
-        <v>98814.82558991022</v>
+        <v>2360.395781818312</v>
       </c>
       <c r="E26">
-        <v>4874.958037414511</v>
+        <v>2964.368638528248</v>
       </c>
       <c r="F26">
-        <v>2027.116040801489</v>
+        <v>1832.384579052875</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>125.5</v>
+        <v>171.9</v>
       </c>
       <c r="B27">
-        <v>53691.86594101385</v>
+        <v>2484.684803871263</v>
       </c>
       <c r="C27">
-        <v>10428.72901310691</v>
+        <v>8085.367251562981</v>
       </c>
       <c r="D27">
-        <v>91570.82095435727</v>
+        <v>4048.155824062531</v>
       </c>
       <c r="E27">
-        <v>4331.542924317112</v>
+        <v>3143.983022699854</v>
       </c>
       <c r="F27">
-        <v>1715.715334756117</v>
+        <v>1562.727258425645</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>128.1</v>
+        <v>174.2</v>
       </c>
       <c r="B28">
-        <v>45292.05819521966</v>
+        <v>13343.7116427923</v>
       </c>
       <c r="C28">
-        <v>8944.851519949952</v>
+        <v>7846.244230061076</v>
       </c>
       <c r="D28">
-        <v>82122.89056456552</v>
+        <v>4781.7231409542</v>
       </c>
       <c r="E28">
-        <v>3754.920963556656</v>
+        <v>3347.670787970171</v>
       </c>
       <c r="F28">
-        <v>1663.996136342053</v>
+        <v>1403.994605042632</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>130.7</v>
+        <v>176.7</v>
       </c>
       <c r="B29">
-        <v>33482.25044942548</v>
+        <v>15899.17559814134</v>
       </c>
       <c r="C29">
-        <v>9510.974026793006</v>
+        <v>8136.327902341605</v>
       </c>
       <c r="D29">
-        <v>74874.96017477379</v>
+        <v>4536.905007140813</v>
       </c>
       <c r="E29">
-        <v>4508.299002796197</v>
+        <v>2979.505315437905</v>
       </c>
       <c r="F29">
-        <v>1492.27693792799</v>
+        <v>1377.111286148051</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>133.3</v>
+        <v>179</v>
       </c>
       <c r="B30">
-        <v>34012.44270363128</v>
+        <v>18248.2024370625</v>
       </c>
       <c r="C30">
-        <v>7267.096533636043</v>
+        <v>8817.204880839701</v>
       </c>
       <c r="D30">
-        <v>67217.02978498205</v>
+        <v>1980.472324032482</v>
       </c>
       <c r="E30">
-        <v>4641.67704203574</v>
+        <v>3093.193080708218</v>
       </c>
       <c r="F30">
-        <v>1720.557739513928</v>
+        <v>1258.378632765038</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>135.7</v>
+        <v>181.3</v>
       </c>
       <c r="B31">
-        <v>26927.23555366739</v>
+        <v>18397.22927598366</v>
       </c>
       <c r="C31">
-        <v>7270.440386106558</v>
+        <v>8498.081859337795</v>
       </c>
       <c r="D31">
-        <v>60791.24788671276</v>
+        <v>2864.039640924166</v>
       </c>
       <c r="E31">
-        <v>3838.641385949163</v>
+        <v>3156.880845978531</v>
       </c>
       <c r="F31">
-        <v>2038.201556362484</v>
+        <v>1369.645979382023</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>138.4</v>
+        <v>183.6</v>
       </c>
       <c r="B32">
-        <v>26950.12750995806</v>
+        <v>18846.25611490481</v>
       </c>
       <c r="C32">
-        <v>7312.952220135873</v>
+        <v>10978.95883783588</v>
       </c>
       <c r="D32">
-        <v>55057.24325115978</v>
+        <v>3867.606957815849</v>
       </c>
       <c r="E32">
-        <v>3875.226272851768</v>
+        <v>2820.568611248844</v>
       </c>
       <c r="F32">
-        <v>1506.80085031711</v>
+        <v>1750.913325999009</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>140.7</v>
+        <v>185.9</v>
       </c>
       <c r="B33">
-        <v>20302.22065790931</v>
+        <v>16575.28295382585</v>
       </c>
       <c r="C33">
-        <v>6989.906745420109</v>
+        <v>10779.83581633397</v>
       </c>
       <c r="D33">
-        <v>48807.53559865172</v>
+        <v>2801.174274707533</v>
       </c>
       <c r="E33">
-        <v>3398.983769102134</v>
+        <v>3194.256376519161</v>
       </c>
       <c r="F33">
-        <v>1734.126174796978</v>
+        <v>1762.180672615996</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>143</v>
+        <v>188.5</v>
       </c>
       <c r="B34">
-        <v>17874.31380586057</v>
+        <v>17158.96546738889</v>
       </c>
       <c r="C34">
-        <v>6426.861270704337</v>
+        <v>11969.52283550573</v>
       </c>
       <c r="D34">
-        <v>44387.82794614362</v>
+        <v>1032.163415541596</v>
       </c>
       <c r="E34">
-        <v>3212.741265352496</v>
+        <v>3310.164285085605</v>
       </c>
       <c r="F34">
-        <v>1581.451499276844</v>
+        <v>1606.222020965632</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>145.2</v>
+        <v>190.8</v>
       </c>
       <c r="B35">
-        <v>14883.70725172709</v>
+        <v>25627.99230631005</v>
       </c>
       <c r="C35">
-        <v>7707.426468802303</v>
+        <v>11910.39981400382</v>
       </c>
       <c r="D35">
-        <v>42614.19453939678</v>
+        <v>2125.730732433265</v>
       </c>
       <c r="E35">
-        <v>4213.291913939805</v>
+        <v>2943.852050355918</v>
       </c>
       <c r="F35">
-        <v>1788.458331388022</v>
+        <v>1427.489367582619</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>147.4</v>
+        <v>193.1</v>
       </c>
       <c r="B36">
-        <v>9373.100697593491</v>
+        <v>24007.01914523121</v>
       </c>
       <c r="C36">
-        <v>7187.99166690026</v>
+        <v>13371.27679250192</v>
       </c>
       <c r="D36">
-        <v>39640.56113264991</v>
+        <v>1769.298049324963</v>
       </c>
       <c r="E36">
-        <v>4193.842562527106</v>
+        <v>3477.539815626232</v>
       </c>
       <c r="F36">
-        <v>2325.4651634992</v>
+        <v>1698.756714199604</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>149.6</v>
+        <v>195.4</v>
       </c>
       <c r="B37">
-        <v>9742.494143460011</v>
+        <v>33836.04598415225</v>
       </c>
       <c r="C37">
-        <v>8008.556864998226</v>
+        <v>11052.153771</v>
       </c>
       <c r="D37">
-        <v>36226.92772590306</v>
+        <v>2192.865366216633</v>
       </c>
       <c r="E37">
-        <v>3834.393211114415</v>
+        <v>2131.227580896548</v>
       </c>
       <c r="F37">
-        <v>2372.471995610377</v>
+        <v>1860.02406081659</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>152.1</v>
+        <v>197.7</v>
       </c>
       <c r="B38">
-        <v>12169.98669558097</v>
+        <v>34925.0728230734</v>
       </c>
       <c r="C38">
-        <v>8618.290044655001</v>
+        <v>13823.03074949811</v>
       </c>
       <c r="D38">
-        <v>35375.07158187254</v>
+        <v>2286.432683108316</v>
       </c>
       <c r="E38">
-        <v>3774.564402690898</v>
+        <v>3094.915346166865</v>
       </c>
       <c r="F38">
-        <v>3740.434304827624</v>
+        <v>1881.291407433577</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>154.2</v>
+        <v>200</v>
       </c>
       <c r="B39">
-        <v>7696.680439362521</v>
+        <v>45484.09966199457</v>
       </c>
       <c r="C39">
-        <v>9502.46591556669</v>
+        <v>14013.90772799619</v>
       </c>
       <c r="D39">
-        <v>33947.51242088689</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>4471.908203615142</v>
+        <v>2888.603111437178</v>
       </c>
       <c r="F39">
-        <v>5007.122644570111</v>
+        <v>1662.558754050562</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>156.4</v>
+        <v>202.6</v>
       </c>
       <c r="B40">
-        <v>11706.07388522904</v>
+        <v>56977.78217555748</v>
       </c>
       <c r="C40">
-        <v>10973.03111366466</v>
+        <v>14973.59474716796</v>
       </c>
       <c r="D40">
-        <v>34643.87901414004</v>
+        <v>2080.989140834077</v>
       </c>
       <c r="E40">
-        <v>4792.458852202448</v>
+        <v>2064.511020003619</v>
       </c>
       <c r="F40">
-        <v>6104.12947668129</v>
+        <v>1426.600102400198</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>158.5</v>
+        <v>204.9</v>
       </c>
       <c r="B41">
-        <v>8332.767629010588</v>
+        <v>68346.80901447864</v>
       </c>
       <c r="C41">
-        <v>11167.20698457634</v>
+        <v>13354.47172566604</v>
       </c>
       <c r="D41">
-        <v>34456.3198531544</v>
+        <v>794.5564577257464</v>
       </c>
       <c r="E41">
-        <v>5319.802653126696</v>
+        <v>3198.198785273936</v>
       </c>
       <c r="F41">
-        <v>6240.817816423777</v>
+        <v>1937.867449017185</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>160.7</v>
+        <v>207.2</v>
       </c>
       <c r="B42">
-        <v>9892.161074877109</v>
+        <v>85535.8358533998</v>
       </c>
       <c r="C42">
-        <v>11627.77218267432</v>
+        <v>14325.34870416413</v>
       </c>
       <c r="D42">
-        <v>33532.68644640754</v>
+        <v>848.1237746174156</v>
       </c>
       <c r="E42">
-        <v>4940.353301714001</v>
+        <v>2591.886550544252</v>
       </c>
       <c r="F42">
-        <v>5337.824648534953</v>
+        <v>1669.134795634171</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>163.2</v>
+        <v>209.5</v>
       </c>
       <c r="B43">
-        <v>11919.65362699807</v>
+        <v>115774.862692321</v>
       </c>
       <c r="C43">
-        <v>11587.50536233109</v>
+        <v>16356.22568266223</v>
       </c>
       <c r="D43">
-        <v>30680.83030237702</v>
+        <v>781.6910915091139</v>
       </c>
       <c r="E43">
-        <v>4300.524493290484</v>
+        <v>2815.574315814565</v>
       </c>
       <c r="F43">
-        <v>3555.786957752199</v>
+        <v>2360.402142251158</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>165.3</v>
+        <v>212.1</v>
       </c>
       <c r="B44">
-        <v>11746.34737077962</v>
+        <v>134668.5452058839</v>
       </c>
       <c r="C44">
-        <v>10661.68123324277</v>
+        <v>16005.91270183398</v>
       </c>
       <c r="D44">
-        <v>29823.27114139138</v>
+        <v>2282.680232343177</v>
       </c>
       <c r="E44">
-        <v>3957.868294214728</v>
+        <v>2961.482224381006</v>
       </c>
       <c r="F44">
-        <v>3192.475297494686</v>
+        <v>2234.443490600794</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>167.5</v>
+        <v>214.3</v>
       </c>
       <c r="B45">
-        <v>15145.74081664614</v>
+        <v>157799.353486591</v>
       </c>
       <c r="C45">
-        <v>10912.24643134073</v>
+        <v>14547.18633344084</v>
       </c>
       <c r="D45">
-        <v>28129.63773464453</v>
+        <v>2200.440274587396</v>
       </c>
       <c r="E45">
-        <v>3988.418942802034</v>
+        <v>2971.096608552612</v>
       </c>
       <c r="F45">
-        <v>2879.482129605864</v>
+        <v>1734.786169973564</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>169.7</v>
+        <v>216.6</v>
       </c>
       <c r="B46">
-        <v>13305.13426251254</v>
+        <v>173548.3803255122</v>
       </c>
       <c r="C46">
-        <v>11742.8116294387</v>
+        <v>16398.06331193895</v>
       </c>
       <c r="D46">
-        <v>26346.00432789767</v>
+        <v>514.0075914790796</v>
       </c>
       <c r="E46">
-        <v>4258.969591389342</v>
+        <v>2584.784373822929</v>
       </c>
       <c r="F46">
-        <v>3066.488961717042</v>
+        <v>2386.053516590549</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>171.9</v>
+        <v>218.8</v>
       </c>
       <c r="B47">
-        <v>7434.527708379061</v>
+        <v>204939.1886062194</v>
       </c>
       <c r="C47">
-        <v>13583.37682753666</v>
+        <v>17219.3369435458</v>
       </c>
       <c r="D47">
-        <v>27552.37092115081</v>
+        <v>3011.767633723299</v>
       </c>
       <c r="E47">
-        <v>4419.520239976647</v>
+        <v>3104.398757994531</v>
       </c>
       <c r="F47">
-        <v>2783.495793828218</v>
+        <v>2216.396195963318</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>174.2</v>
+        <v>221.1</v>
       </c>
       <c r="B48">
-        <v>17936.62085633032</v>
+        <v>231278.2154451405</v>
       </c>
       <c r="C48">
-        <v>13270.33135282091</v>
+        <v>16940.2139220439</v>
       </c>
       <c r="D48">
-        <v>27782.66326864273</v>
+        <v>2955.334950614968</v>
       </c>
       <c r="E48">
-        <v>4603.277736227014</v>
+        <v>2798.086523264848</v>
       </c>
       <c r="F48">
-        <v>2610.821118308086</v>
+        <v>2507.663542580304</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>176.7</v>
+        <v>223.4</v>
       </c>
       <c r="B49">
-        <v>20104.11340845127</v>
+        <v>256637.2422840617</v>
       </c>
       <c r="C49">
-        <v>13480.06453247767</v>
+        <v>17521.09090054198</v>
       </c>
       <c r="D49">
-        <v>26990.80712461221</v>
+        <v>528.9022675066517</v>
       </c>
       <c r="E49">
-        <v>4213.448927803496</v>
+        <v>3831.774288535165</v>
       </c>
       <c r="F49">
-        <v>2568.783427525332</v>
+        <v>2208.930889197291</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>179</v>
+        <v>225.9</v>
       </c>
       <c r="B50">
-        <v>22096.20655640265</v>
+        <v>277472.7062394107</v>
       </c>
       <c r="C50">
-        <v>14087.01905776191</v>
+        <v>16381.17457282253</v>
       </c>
       <c r="D50">
-        <v>23931.09947210413</v>
+        <v>2664.084133693264</v>
       </c>
       <c r="E50">
-        <v>4307.206424053862</v>
+        <v>2173.608816002899</v>
       </c>
       <c r="F50">
-        <v>2436.1087520052</v>
+        <v>2112.047570302711</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>181.3</v>
+        <v>228.2</v>
       </c>
       <c r="B51">
-        <v>21888.2997043539</v>
+        <v>312541.7330783318</v>
       </c>
       <c r="C51">
-        <v>13693.97358304614</v>
+        <v>19202.05155132062</v>
       </c>
       <c r="D51">
-        <v>24311.39181959605</v>
+        <v>3157.651450584934</v>
       </c>
       <c r="E51">
-        <v>4350.963920304224</v>
+        <v>2517.296581273213</v>
       </c>
       <c r="F51">
-        <v>2533.434076485068</v>
+        <v>2383.314916919696</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>183.6</v>
+        <v>230.5</v>
       </c>
       <c r="B52">
-        <v>21980.39285230516</v>
+        <v>349560.7599172529</v>
       </c>
       <c r="C52">
-        <v>16100.92810833038</v>
+        <v>17072.9285298187</v>
       </c>
       <c r="D52">
-        <v>24811.68416708797</v>
+        <v>1701.218767476617</v>
       </c>
       <c r="E52">
-        <v>3994.72141655459</v>
+        <v>2770.984346543526</v>
       </c>
       <c r="F52">
-        <v>2900.759400964934</v>
+        <v>1984.582263536682</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>185.9</v>
+        <v>232.8</v>
       </c>
       <c r="B53">
-        <v>19352.48600025653</v>
+        <v>376359.7867561741</v>
       </c>
       <c r="C53">
-        <v>15827.88263361462</v>
+        <v>18973.80550831681</v>
       </c>
       <c r="D53">
-        <v>23241.97651457989</v>
+        <v>2004.786084368301</v>
       </c>
       <c r="E53">
-        <v>4348.478912804952</v>
+        <v>2134.672111813838</v>
       </c>
       <c r="F53">
-        <v>2898.084725444802</v>
+        <v>2055.849610153669</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>188.5</v>
+        <v>235</v>
       </c>
       <c r="B54">
-        <v>19532.67825446234</v>
+        <v>409390.5950368813</v>
       </c>
       <c r="C54">
-        <v>16934.00514045766</v>
+        <v>18515.07913992368</v>
       </c>
       <c r="D54">
-        <v>20904.04612478815</v>
+        <v>3142.546126612506</v>
       </c>
       <c r="E54">
-        <v>4441.8569520445</v>
+        <v>2104.286495985445</v>
       </c>
       <c r="F54">
-        <v>2726.365527030738</v>
+        <v>1716.192289526438</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>190.8</v>
+        <v>237.6</v>
       </c>
       <c r="B55">
-        <v>27644.77140241359</v>
+        <v>457234.2775504442</v>
       </c>
       <c r="C55">
-        <v>16800.95966574189</v>
+        <v>18604.76615909542</v>
       </c>
       <c r="D55">
-        <v>21494.33847228007</v>
+        <v>3643.535267446568</v>
       </c>
       <c r="E55">
-        <v>4055.614448294862</v>
+        <v>2950.194404551893</v>
       </c>
       <c r="F55">
-        <v>2533.690851510606</v>
+        <v>1720.233637876075</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>193.1</v>
+        <v>239.6</v>
       </c>
       <c r="B56">
-        <v>25666.86455036485</v>
+        <v>505528.6487147235</v>
       </c>
       <c r="C56">
-        <v>18187.91419102613</v>
+        <v>19336.83309691986</v>
       </c>
       <c r="D56">
-        <v>20634.63081977199</v>
+        <v>4119.680760395873</v>
       </c>
       <c r="E56">
-        <v>4569.371944545228</v>
+        <v>2161.662026526079</v>
       </c>
       <c r="F56">
-        <v>2791.016175990472</v>
+        <v>1578.726982760411</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>195.4</v>
+        <v>242.1</v>
       </c>
       <c r="B57">
-        <v>35138.95769831622</v>
+        <v>547504.1126700725</v>
       </c>
       <c r="C57">
-        <v>15794.86871631036</v>
+        <v>21226.9167692004</v>
       </c>
       <c r="D57">
-        <v>20554.92316726391</v>
+        <v>3464.862626582471</v>
       </c>
       <c r="E57">
-        <v>3203.12944079559</v>
+        <v>2023.496553993813</v>
       </c>
       <c r="F57">
-        <v>2938.34150047034</v>
+        <v>1331.84366386583</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>197.7</v>
+        <v>244.4</v>
       </c>
       <c r="B58">
-        <v>35871.05084626748</v>
+        <v>608503.1395089935</v>
       </c>
       <c r="C58">
-        <v>18491.8232415946</v>
+        <v>18257.79374769848</v>
       </c>
       <c r="D58">
-        <v>20145.21551475583</v>
+        <v>4678.429943474155</v>
       </c>
       <c r="E58">
-        <v>4146.886937045959</v>
+        <v>1657.184319264126</v>
       </c>
       <c r="F58">
-        <v>2945.666824950206</v>
+        <v>1033.111010482817</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>200</v>
+        <v>246.7</v>
       </c>
       <c r="B59">
-        <v>46073.14399421873</v>
+        <v>652212.1663479147</v>
       </c>
       <c r="C59">
-        <v>18608.77776687883</v>
+        <v>16618.67072619658</v>
       </c>
       <c r="D59">
-        <v>17355.50786224777</v>
+        <v>4441.997260365839</v>
       </c>
       <c r="E59">
-        <v>3920.644433296321</v>
+        <v>2180.872084534439</v>
       </c>
       <c r="F59">
-        <v>2712.992149430074</v>
+        <v>1104.378357099802</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>202.6</v>
+        <v>249.3</v>
       </c>
       <c r="B60">
-        <v>57163.33624842454</v>
+        <v>687085.8488614777</v>
       </c>
       <c r="C60">
-        <v>19484.90027372187</v>
+        <v>19708.35774536834</v>
       </c>
       <c r="D60">
-        <v>18867.57747245601</v>
+        <v>2102.986401199902</v>
       </c>
       <c r="E60">
-        <v>3074.022472535865</v>
+        <v>2106.779993100883</v>
       </c>
       <c r="F60">
-        <v>2461.272951016012</v>
+        <v>1248.419705449438</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>204.9</v>
+        <v>251.6</v>
       </c>
       <c r="B61">
-        <v>68175.42939637591</v>
+        <v>723844.8757003989</v>
       </c>
       <c r="C61">
-        <v>17791.85479900611</v>
+        <v>18279.23472386642</v>
       </c>
       <c r="D61">
-        <v>17077.86981994794</v>
+        <v>4066.5537180916</v>
       </c>
       <c r="E61">
-        <v>4187.779968786231</v>
+        <v>1480.4677583712</v>
       </c>
       <c r="F61">
-        <v>2958.598275495878</v>
+        <v>999.6870520664252</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>207.2</v>
+        <v>253.9</v>
       </c>
       <c r="B62">
-        <v>85007.52254432718</v>
+        <v>757843.9025393201</v>
       </c>
       <c r="C62">
-        <v>18688.80932429035</v>
+        <v>19630.11170236452</v>
       </c>
       <c r="D62">
-        <v>16628.16216743987</v>
+        <v>4150.121034983269</v>
       </c>
       <c r="E62">
-        <v>3561.537465036597</v>
+        <v>1784.155523641513</v>
       </c>
       <c r="F62">
-        <v>2675.923599975746</v>
+        <v>1120.954398683411</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>209.5</v>
+        <v>256.2</v>
       </c>
       <c r="B63">
-        <v>114889.6156922784</v>
+        <v>820542.929378241</v>
       </c>
       <c r="C63">
-        <v>20645.76384957458</v>
+        <v>20080.98868086261</v>
       </c>
       <c r="D63">
-        <v>16058.45451493179</v>
+        <v>5353.688351874938</v>
       </c>
       <c r="E63">
-        <v>3765.294961286959</v>
+        <v>1527.843288911826</v>
       </c>
       <c r="F63">
-        <v>3353.248924455612</v>
+        <v>1182.221745300396</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>212.1</v>
+        <v>258.4</v>
       </c>
       <c r="B64">
-        <v>133379.8079464842</v>
+        <v>832403.7376589483</v>
       </c>
       <c r="C64">
-        <v>20211.88635641762</v>
+        <v>17862.26231246948</v>
       </c>
       <c r="D64">
-        <v>16990.52412514004</v>
+        <v>2591.448394119157</v>
       </c>
       <c r="E64">
-        <v>3888.673000526503</v>
+        <v>1727.457673083433</v>
       </c>
       <c r="F64">
-        <v>3211.52972604155</v>
+        <v>812.5644246731654</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>214.3</v>
+        <v>260.7</v>
       </c>
       <c r="B65">
-        <v>156169.2013923508</v>
+        <v>858702.7644978694</v>
       </c>
       <c r="C65">
-        <v>18682.45155451557</v>
+        <v>17593.13929096757</v>
       </c>
       <c r="D65">
-        <v>16426.89071839318</v>
+        <v>5425.015711010841</v>
       </c>
       <c r="E65">
-        <v>3879.223649113808</v>
+        <v>2111.145438353749</v>
       </c>
       <c r="F65">
-        <v>2698.536558152726</v>
+        <v>933.8317712901526</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>216.6</v>
+        <v>263.3</v>
       </c>
       <c r="B66">
-        <v>171561.294540302</v>
+        <v>832756.4470114325</v>
       </c>
       <c r="C66">
-        <v>20459.40607979981</v>
+        <v>18472.82631013933</v>
       </c>
       <c r="D66">
-        <v>14237.1830658851</v>
+        <v>3436.004851844918</v>
       </c>
       <c r="E66">
-        <v>3472.981145364174</v>
+        <v>2197.05334692019</v>
       </c>
       <c r="F66">
-        <v>3335.861882632594</v>
+        <v>887.8731196397889</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>218.8</v>
+        <v>265.6</v>
       </c>
       <c r="B67">
-        <v>202610.6879861684</v>
+        <v>849315.4738503534</v>
       </c>
       <c r="C67">
-        <v>21209.97127789777</v>
+        <v>17013.70328863741</v>
       </c>
       <c r="D67">
-        <v>16253.54965913824</v>
+        <v>4919.572168736602</v>
       </c>
       <c r="E67">
-        <v>3973.531793951479</v>
+        <v>2060.741112190506</v>
       </c>
       <c r="F67">
-        <v>3152.868714743771</v>
+        <v>879.1404662567761</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>221.1</v>
+        <v>267.9</v>
       </c>
       <c r="B68">
-        <v>228592.7811341198</v>
+        <v>848214.5006892745</v>
       </c>
       <c r="C68">
-        <v>20856.925803182</v>
+        <v>16104.58026713552</v>
       </c>
       <c r="D68">
-        <v>15693.84200663017</v>
+        <v>5983.139485628257</v>
       </c>
       <c r="E68">
-        <v>3647.289290201845</v>
+        <v>1954.42887746082</v>
       </c>
       <c r="F68">
-        <v>3430.194039223637</v>
+        <v>930.407812873761</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>223.4</v>
+        <v>270.1</v>
       </c>
       <c r="B69">
-        <v>253594.8742820711</v>
+        <v>837705.3089699819</v>
       </c>
       <c r="C69">
-        <v>21363.88032846624</v>
+        <v>14825.85389874237</v>
       </c>
       <c r="D69">
-        <v>12764.13435412208</v>
+        <v>5030.899527872491</v>
       </c>
       <c r="E69">
-        <v>4661.046786452206</v>
+        <v>1394.043261632426</v>
       </c>
       <c r="F69">
-        <v>3117.519363703505</v>
+        <v>700.7504922465309</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>225.9</v>
+        <v>272.4</v>
       </c>
       <c r="B70">
-        <v>274042.366834192</v>
+        <v>806014.335808903</v>
       </c>
       <c r="C70">
-        <v>20143.61350812303</v>
+        <v>15316.73087724047</v>
       </c>
       <c r="D70">
-        <v>14352.27821009156</v>
+        <v>4664.46684476416</v>
       </c>
       <c r="E70">
-        <v>2981.217978028694</v>
+        <v>1217.731026902739</v>
       </c>
       <c r="F70">
-        <v>3005.481672920751</v>
+        <v>612.0178388635161</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>228.2</v>
+        <v>274.6</v>
       </c>
       <c r="B71">
-        <v>308754.4599821433</v>
+        <v>745185.14408961</v>
       </c>
       <c r="C71">
-        <v>22890.56803340727</v>
+        <v>15798.00450884734</v>
       </c>
       <c r="D71">
-        <v>14342.57055758348</v>
+        <v>5432.226887008379</v>
       </c>
       <c r="E71">
-        <v>3304.97547427906</v>
+        <v>1547.345411074345</v>
       </c>
       <c r="F71">
-        <v>3262.806997400619</v>
+        <v>572.3605182362858</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>230.5</v>
+        <v>277.2</v>
       </c>
       <c r="B72">
-        <v>345416.5531300946</v>
+        <v>696068.826603173</v>
       </c>
       <c r="C72">
-        <v>20687.5225586915</v>
+        <v>16057.69152801911</v>
       </c>
       <c r="D72">
-        <v>12382.8629050754</v>
+        <v>5313.216027842456</v>
       </c>
       <c r="E72">
-        <v>3538.732970529421</v>
+        <v>1123.25331964079</v>
       </c>
       <c r="F72">
-        <v>2850.132321880486</v>
+        <v>876.4018665859219</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>232.8</v>
+        <v>279.5</v>
       </c>
       <c r="B73">
-        <v>371858.6462780459</v>
+        <v>615227.8534420942</v>
       </c>
       <c r="C73">
-        <v>22514.47708397572</v>
+        <v>15188.56850651719</v>
       </c>
       <c r="D73">
-        <v>12183.15525256732</v>
+        <v>7446.78334473414</v>
       </c>
       <c r="E73">
-        <v>2882.490466779787</v>
+        <v>1996.941084911107</v>
       </c>
       <c r="F73">
-        <v>2907.457646360353</v>
+        <v>647.6692132029088</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>235</v>
+        <v>281.8</v>
       </c>
       <c r="B74">
-        <v>404548.0397239124</v>
+        <v>540966.8802810154</v>
       </c>
       <c r="C74">
-        <v>21985.04228207369</v>
+        <v>15419.44548501527</v>
       </c>
       <c r="D74">
-        <v>12839.52184582048</v>
+        <v>7450.350661625824</v>
       </c>
       <c r="E74">
-        <v>2833.041115367093</v>
+        <v>1170.62885018142</v>
       </c>
       <c r="F74">
-        <v>2554.464478471531</v>
+        <v>998.9365598198942</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>237.6</v>
+        <v>284</v>
       </c>
       <c r="B75">
-        <v>451988.2319781182</v>
+        <v>500747.6885617226</v>
       </c>
       <c r="C75">
-        <v>21991.16478891673</v>
+        <v>15680.71911662214</v>
       </c>
       <c r="D75">
-        <v>12771.59145602872</v>
+        <v>6688.110703870028</v>
       </c>
       <c r="E75">
-        <v>3656.419154606637</v>
+        <v>1470.243234353026</v>
       </c>
       <c r="F75">
-        <v>2542.745280057467</v>
+        <v>469.2792391926639</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>239.6</v>
+        <v>286.4</v>
       </c>
       <c r="B76">
-        <v>499972.2260198149</v>
+        <v>446874.9339588577</v>
       </c>
       <c r="C76">
-        <v>22658.95133264217</v>
+        <v>16161.19944201146</v>
       </c>
       <c r="D76">
-        <v>12810.10654080432</v>
+        <v>7247.485295409177</v>
       </c>
       <c r="E76">
-        <v>2850.556107867824</v>
+        <v>1128.00438072205</v>
       </c>
       <c r="F76">
-        <v>2389.115127431265</v>
+        <v>441.4712530538668</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>242.1</v>
+        <v>288.6</v>
       </c>
       <c r="B77">
-        <v>541559.718571936</v>
+        <v>400795.7422395648</v>
       </c>
       <c r="C77">
-        <v>24468.68451229893</v>
+        <v>17062.47307361833</v>
       </c>
       <c r="D77">
-        <v>11608.25039677378</v>
+        <v>9355.245337653381</v>
       </c>
       <c r="E77">
-        <v>2690.727299444307</v>
+        <v>1207.618764893652</v>
       </c>
       <c r="F77">
-        <v>2127.077436648511</v>
+        <v>381.8139324266363</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>244.4</v>
+        <v>291.2</v>
       </c>
       <c r="B78">
-        <v>602201.8117198872</v>
+        <v>372499.4247531279</v>
       </c>
       <c r="C78">
-        <v>21425.63903758316</v>
+        <v>19932.1600927901</v>
       </c>
       <c r="D78">
-        <v>12318.54274426572</v>
+        <v>11046.23447848746</v>
       </c>
       <c r="E78">
-        <v>2304.484795694673</v>
+        <v>773.5266734600964</v>
       </c>
       <c r="F78">
-        <v>1814.402761128379</v>
+        <v>895.8552807762726</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>246.7</v>
+        <v>293.5</v>
       </c>
       <c r="B79">
-        <v>645553.9048678385</v>
+        <v>348598.451592049</v>
       </c>
       <c r="C79">
-        <v>19712.5935628674</v>
+        <v>18743.03707128818</v>
       </c>
       <c r="D79">
-        <v>11578.83509175764</v>
+        <v>10709.80179537914</v>
       </c>
       <c r="E79">
-        <v>2808.242291945039</v>
+        <v>1827.214438730414</v>
       </c>
       <c r="F79">
-        <v>1871.728085608247</v>
+        <v>317.1226273932596</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>249.3</v>
+        <v>295.8</v>
       </c>
       <c r="B80">
-        <v>680024.0971220444</v>
+        <v>323317.47843097</v>
       </c>
       <c r="C80">
-        <v>22718.71606971043</v>
+        <v>21663.91404978628</v>
       </c>
       <c r="D80">
-        <v>8670.904701965897</v>
+        <v>10563.36911227081</v>
       </c>
       <c r="E80">
-        <v>2711.620331184579</v>
+        <v>1540.902204000727</v>
       </c>
       <c r="F80">
-        <v>2000.008887194183</v>
+        <v>698.3899740102449</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>251.6</v>
+        <v>298.1</v>
       </c>
       <c r="B81">
-        <v>716426.1902699956</v>
+        <v>297426.5052698912</v>
       </c>
       <c r="C81">
-        <v>21215.67059499467</v>
+        <v>23104.79102828437</v>
       </c>
       <c r="D81">
-        <v>10131.19704945782</v>
+        <v>9316.936429162495</v>
       </c>
       <c r="E81">
-        <v>2065.377827434945</v>
+        <v>504.58996927104</v>
       </c>
       <c r="F81">
-        <v>1737.334211674049</v>
+        <v>589.6573206272303</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>253.9</v>
+        <v>300.3</v>
       </c>
       <c r="B82">
-        <v>750068.283417947</v>
+        <v>275407.3135505983</v>
       </c>
       <c r="C82">
-        <v>22492.62512027891</v>
+        <v>24836.06465989124</v>
       </c>
       <c r="D82">
-        <v>9711.489396949735</v>
+        <v>8124.6964714067</v>
       </c>
       <c r="E82">
-        <v>2349.135323685311</v>
+        <v>414.2043534426457</v>
       </c>
       <c r="F82">
-        <v>1844.659536153917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>256.2</v>
+        <v>302.9</v>
       </c>
       <c r="B83">
-        <v>812410.3765658983</v>
+        <v>260030.9960641614</v>
       </c>
       <c r="C83">
-        <v>22869.57964556314</v>
+        <v>27255.751679063</v>
       </c>
       <c r="D83">
-        <v>10411.78174444166</v>
+        <v>8905.685612240777</v>
       </c>
       <c r="E83">
-        <v>2072.892819935676</v>
+        <v>1170.112262009091</v>
       </c>
       <c r="F83">
-        <v>1891.984860633785</v>
+        <v>584.0413483496359</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>258.4</v>
+        <v>305.2</v>
       </c>
       <c r="B84">
-        <v>823929.7700117646</v>
+        <v>241780.0229030825</v>
       </c>
       <c r="C84">
-        <v>20580.1448436611</v>
+        <v>28856.62865756109</v>
       </c>
       <c r="D84">
-        <v>7168.148337694798</v>
+        <v>9979.252929132461</v>
       </c>
       <c r="E84">
-        <v>2253.443468522982</v>
+        <v>1203.800027279407</v>
       </c>
       <c r="F84">
-        <v>1508.991692744961</v>
+        <v>775.3086949666231</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>260.7</v>
+        <v>307.5</v>
       </c>
       <c r="B85">
-        <v>849871.863159716</v>
+        <v>236769.0497420036</v>
       </c>
       <c r="C85">
-        <v>20237.09936894534</v>
+        <v>30867.50563605918</v>
       </c>
       <c r="D85">
-        <v>9498.440685186717</v>
+        <v>9102.820246024145</v>
       </c>
       <c r="E85">
-        <v>2617.200964773348</v>
+        <v>147.4877925497203</v>
       </c>
       <c r="F85">
-        <v>1616.317017224829</v>
+        <v>196.5760415836085</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>263.3</v>
+        <v>309.8</v>
       </c>
       <c r="B86">
-        <v>823522.0554139217</v>
+        <v>222848.0765809247</v>
       </c>
       <c r="C86">
-        <v>21033.22187578837</v>
+        <v>32398.38261455727</v>
       </c>
       <c r="D86">
-        <v>6940.510295394975</v>
+        <v>12016.38756291581</v>
       </c>
       <c r="E86">
-        <v>2680.579004012888</v>
+        <v>481.1755578200336</v>
       </c>
       <c r="F86">
-        <v>1554.597818810765</v>
+        <v>517.8433882005957</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>265.6</v>
+        <v>312</v>
       </c>
       <c r="B87">
-        <v>839724.148561873</v>
+        <v>214048.8848616319</v>
       </c>
       <c r="C87">
-        <v>19500.17640107261</v>
+        <v>35269.65624616414</v>
       </c>
       <c r="D87">
-        <v>7920.802642886894</v>
+        <v>11124.14760516003</v>
       </c>
       <c r="E87">
-        <v>2524.336500263253</v>
+        <v>900.7899419916394</v>
       </c>
       <c r="F87">
-        <v>1531.923143290633</v>
+        <v>468.1860675733633</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>267.9</v>
+        <v>314.3</v>
       </c>
       <c r="B88">
-        <v>838266.2417098244</v>
+        <v>223397.9117005531</v>
       </c>
       <c r="C88">
-        <v>18517.13092635686</v>
+        <v>34080.53322466223</v>
       </c>
       <c r="D88">
-        <v>8481.094990378817</v>
+        <v>11427.71492205171</v>
       </c>
       <c r="E88">
-        <v>2398.093996513619</v>
+        <v>434.4777072619527</v>
       </c>
       <c r="F88">
-        <v>1569.248467770501</v>
+        <v>289.4534141903505</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>270.1</v>
+        <v>316.6</v>
       </c>
       <c r="B89">
-        <v>827415.635155691</v>
+        <v>209026.9385394741</v>
       </c>
       <c r="C89">
-        <v>17167.6961244548</v>
+        <v>32351.41020316032</v>
       </c>
       <c r="D89">
-        <v>7047.461583631954</v>
+        <v>11821.2822389434</v>
       </c>
       <c r="E89">
-        <v>1818.64464510092</v>
+        <v>1388.165472532266</v>
       </c>
       <c r="F89">
-        <v>1326.255299881677</v>
+        <v>750.7207608073377</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>272.4</v>
+        <v>319.1</v>
       </c>
       <c r="B90">
-        <v>795367.7283036421</v>
+        <v>213952.4024948232</v>
       </c>
       <c r="C90">
-        <v>17584.65064973905</v>
+        <v>28271.49387544085</v>
       </c>
       <c r="D90">
-        <v>6177.753931123876</v>
+        <v>11216.46410513001</v>
       </c>
       <c r="E90">
-        <v>1622.40214135129</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1223.580624361545</v>
+        <v>813.8374419127563</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>274.6</v>
+        <v>321.4</v>
       </c>
       <c r="B91">
-        <v>734197.1217495085</v>
+        <v>211521.4293337443</v>
       </c>
       <c r="C91">
-        <v>17995.21584783701</v>
+        <v>25022.37085393896</v>
       </c>
       <c r="D91">
-        <v>6464.120524377027</v>
+        <v>11840.03142202168</v>
       </c>
       <c r="E91">
-        <v>1932.952789938591</v>
+        <v>1153.687765270321</v>
       </c>
       <c r="F91">
-        <v>1170.587456472722</v>
+        <v>585.1047885297414</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>277.2</v>
+        <v>323.7</v>
       </c>
       <c r="B92">
-        <v>684677.3140037142</v>
+        <v>203330.4561726654</v>
       </c>
       <c r="C92">
-        <v>18171.33835468007</v>
+        <v>21433.24783243704</v>
       </c>
       <c r="D92">
-        <v>5776.190134585275</v>
+        <v>12613.59873891335</v>
       </c>
       <c r="E92">
-        <v>1486.330829178135</v>
+        <v>907.3755305406339</v>
       </c>
       <c r="F92">
-        <v>1458.868258058659</v>
+        <v>836.3721351467286</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>279.5</v>
+        <v>325.9</v>
       </c>
       <c r="B93">
-        <v>603479.4071516657</v>
+        <v>209491.2644533726</v>
       </c>
       <c r="C93">
-        <v>17228.2928799643</v>
+        <v>18354.52146404391</v>
       </c>
       <c r="D93">
-        <v>7406.482482077208</v>
+        <v>13121.35878115759</v>
       </c>
       <c r="E93">
-        <v>2340.088325428501</v>
+        <v>1276.98991471224</v>
       </c>
       <c r="F93">
-        <v>1216.193582538526</v>
+        <v>666.7148145194965</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>281.8</v>
+        <v>328.5</v>
       </c>
       <c r="B94">
-        <v>528861.5002996171</v>
+        <v>212664.9469669356</v>
       </c>
       <c r="C94">
-        <v>17385.24740524854</v>
+        <v>15384.20848321568</v>
       </c>
       <c r="D94">
-        <v>6906.774829569113</v>
+        <v>13322.34792199166</v>
       </c>
       <c r="E94">
-        <v>1493.845821678867</v>
+        <v>482.8978232786803</v>
       </c>
       <c r="F94">
-        <v>1553.518907018392</v>
+        <v>260.7561628691344</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>284</v>
+        <v>330.9</v>
       </c>
       <c r="B95">
-        <v>488300.8937454834</v>
+        <v>217422.1923640707</v>
       </c>
       <c r="C95">
-        <v>17575.81260334649</v>
+        <v>13624.68880860498</v>
       </c>
       <c r="D95">
-        <v>5663.141422822271</v>
+        <v>13881.72251353079</v>
       </c>
       <c r="E95">
-        <v>1774.396470266172</v>
+        <v>870.6589696477076</v>
       </c>
       <c r="F95">
-        <v>1010.52573912957</v>
+        <v>662.9481767303373</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>286.4</v>
+        <v>333.1</v>
       </c>
       <c r="B96">
-        <v>434055.6865955195</v>
+        <v>223803.0006447778</v>
       </c>
       <c r="C96">
-        <v>17979.15645581701</v>
+        <v>14365.96244021184</v>
       </c>
       <c r="D96">
-        <v>5697.359524552972</v>
+        <v>13879.48255577501</v>
       </c>
       <c r="E96">
-        <v>1411.360814179598</v>
+        <v>1360.273353819311</v>
       </c>
       <c r="F96">
-        <v>968.1695559781265</v>
+        <v>513.2908561031068</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>288.6</v>
+        <v>335.4</v>
       </c>
       <c r="B97">
-        <v>387635.080041386</v>
+        <v>225742.027483699</v>
       </c>
       <c r="C97">
-        <v>18809.72165391495</v>
+        <v>13756.83941870995</v>
       </c>
       <c r="D97">
-        <v>7323.726117806109</v>
+        <v>14663.04987266669</v>
       </c>
       <c r="E97">
-        <v>1471.9114627669</v>
+        <v>1093.961119089628</v>
       </c>
       <c r="F97">
-        <v>895.1763880893042</v>
+        <v>694.5582027200921</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>291.2</v>
+        <v>337.6</v>
       </c>
       <c r="B98">
-        <v>358935.2722955918</v>
+        <v>229072.8357644062</v>
       </c>
       <c r="C98">
-        <v>21595.84416075801</v>
+        <v>13138.11305031682</v>
       </c>
       <c r="D98">
-        <v>8445.795728014371</v>
+        <v>15050.8099149109</v>
       </c>
       <c r="E98">
-        <v>1015.289502006444</v>
+        <v>1633.57550326123</v>
       </c>
       <c r="F98">
-        <v>1393.45718967524</v>
+        <v>804.9008820928618</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>293.5</v>
+        <v>340.3</v>
       </c>
       <c r="B99">
-        <v>334677.3654435431</v>
+        <v>235784.7368361831</v>
       </c>
       <c r="C99">
-        <v>20332.79868604224</v>
+        <v>14057.4034163798</v>
       </c>
       <c r="D99">
-        <v>7606.08807550629</v>
+        <v>14627.60633039245</v>
       </c>
       <c r="E99">
-        <v>2049.04699825681</v>
+        <v>1643.556792926381</v>
       </c>
       <c r="F99">
-        <v>800.7825141551083</v>
+        <v>999.8668976867154</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>295.8</v>
+        <v>342.2</v>
       </c>
       <c r="B100">
-        <v>309039.4585914943</v>
+        <v>234270.8894422484</v>
       </c>
       <c r="C100">
-        <v>23179.75321132648</v>
+        <v>13359.867007313</v>
       </c>
       <c r="D100">
-        <v>6956.380422998209</v>
+        <v>16017.94454869426</v>
       </c>
       <c r="E100">
-        <v>1742.804494507172</v>
+        <v>2600.95103380186</v>
       </c>
       <c r="F100">
-        <v>1168.107838634976</v>
+        <v>667.4355753268342</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>298.1</v>
+        <v>344.8</v>
       </c>
       <c r="B101">
-        <v>282791.5517394457</v>
+        <v>231644.5719558114</v>
       </c>
       <c r="C101">
-        <v>24546.70773661071</v>
+        <v>13389.55402648475</v>
       </c>
       <c r="D101">
-        <v>5206.672770490128</v>
+        <v>14328.93368952833</v>
       </c>
       <c r="E101">
-        <v>686.5619907575374</v>
+        <v>3346.858942368304</v>
       </c>
       <c r="F101">
-        <v>1045.433163114842</v>
+        <v>561.4769236764703</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>300.3</v>
+        <v>347.1</v>
       </c>
       <c r="B102">
-        <v>260430.9451853122</v>
+        <v>247633.5987947326</v>
       </c>
       <c r="C102">
-        <v>26207.27293470867</v>
+        <v>12880.43100498283</v>
       </c>
       <c r="D102">
-        <v>3533.039363743268</v>
+        <v>17042.50100642001</v>
       </c>
       <c r="E102">
-        <v>577.1126393448426</v>
+        <v>3570.546707638617</v>
       </c>
       <c r="F102">
-        <v>442.43999522602</v>
+        <v>642.7442702934557</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>302.9</v>
+        <v>349.6</v>
       </c>
       <c r="B103">
-        <v>244651.1374395179</v>
+        <v>249179.0627500816</v>
       </c>
       <c r="C103">
-        <v>28543.39544155172</v>
+        <v>13100.51467726337</v>
       </c>
       <c r="D103">
-        <v>3745.10897395153</v>
+        <v>16857.68287260662</v>
       </c>
       <c r="E103">
-        <v>1310.49067858439</v>
+        <v>3742.381235106351</v>
       </c>
       <c r="F103">
-        <v>1010.720796811956</v>
+        <v>1025.860951398876</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>305.2</v>
+        <v>351.9</v>
       </c>
       <c r="B104">
-        <v>226043.2305874692</v>
+        <v>256738.0895890027</v>
       </c>
       <c r="C104">
-        <v>30070.34996683594</v>
+        <v>12401.39165576147</v>
       </c>
       <c r="D104">
-        <v>4315.401321443449</v>
+        <v>16911.25018949831</v>
       </c>
       <c r="E104">
-        <v>1324.248174834752</v>
+        <v>5776.069000376668</v>
       </c>
       <c r="F104">
-        <v>1188.046121291824</v>
+        <v>597.1282980158612</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>307.5</v>
+        <v>354.2</v>
       </c>
       <c r="B105">
-        <v>220675.3237354206</v>
+        <v>258537.1164279238</v>
       </c>
       <c r="C105">
-        <v>32007.30449212018</v>
+        <v>12982.26863425957</v>
       </c>
       <c r="D105">
-        <v>2935.693668935368</v>
+        <v>17904.81750638998</v>
       </c>
       <c r="E105">
-        <v>248.0056710851181</v>
+        <v>7059.756765646981</v>
       </c>
       <c r="F105">
-        <v>595.3714457716901</v>
+        <v>538.3956446328484</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>309.8</v>
+        <v>356.5</v>
       </c>
       <c r="B106">
-        <v>206397.4168833718</v>
+        <v>278216.1432668449</v>
       </c>
       <c r="C106">
-        <v>33464.25901740442</v>
+        <v>13613.14561275766</v>
       </c>
       <c r="D106">
-        <v>5345.986016427287</v>
+        <v>19718.38482328166</v>
       </c>
       <c r="E106">
-        <v>561.7631673354799</v>
+        <v>8283.444530917295</v>
       </c>
       <c r="F106">
-        <v>902.696770251558</v>
+        <v>879.6629912498356</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>312</v>
+        <v>358.7</v>
       </c>
       <c r="B107">
-        <v>197256.8103292384</v>
+        <v>273346.9515475521</v>
       </c>
       <c r="C107">
-        <v>36264.82421550237</v>
+        <v>12544.41924436453</v>
       </c>
       <c r="D107">
-        <v>3972.352609680427</v>
+        <v>18356.14486552587</v>
       </c>
       <c r="E107">
-        <v>962.3138159227888</v>
+        <v>9163.058915088899</v>
       </c>
       <c r="F107">
-        <v>839.7036023627358</v>
+        <v>910.0056706226032</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>314.3</v>
+        <v>361.3</v>
       </c>
       <c r="B108">
-        <v>206248.9034771896</v>
+        <v>289660.6340611151</v>
       </c>
       <c r="C108">
-        <v>35001.77874078661</v>
+        <v>14174.10626353627</v>
       </c>
       <c r="D108">
-        <v>3772.644957172361</v>
+        <v>20237.13400635995</v>
       </c>
       <c r="E108">
-        <v>476.071312173151</v>
+        <v>12388.96682365535</v>
       </c>
       <c r="F108">
-        <v>647.0289268426036</v>
+        <v>644.0470189722414</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>316.6</v>
+        <v>363.6</v>
       </c>
       <c r="B109">
-        <v>191520.9966251409</v>
+        <v>299729.6609000363</v>
       </c>
       <c r="C109">
-        <v>33198.73326607084</v>
+        <v>14614.98324203437</v>
       </c>
       <c r="D109">
-        <v>3662.937304664265</v>
+        <v>22320.70132325163</v>
       </c>
       <c r="E109">
-        <v>1409.828808423516</v>
+        <v>15412.65458892566</v>
       </c>
       <c r="F109">
-        <v>1094.35425132247</v>
+        <v>855.3143655892268</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>319.1</v>
+        <v>365.9</v>
       </c>
       <c r="B110">
-        <v>196058.4891772618</v>
+        <v>305378.6877389573</v>
       </c>
       <c r="C110">
-        <v>29038.46644572762</v>
+        <v>13055.86022053246</v>
       </c>
       <c r="D110">
-        <v>2511.081160633759</v>
+        <v>21944.26864014331</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>18386.34235419598</v>
       </c>
       <c r="F110">
-        <v>1142.316560539716</v>
+        <v>846.5817122062119</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>321.4</v>
+        <v>368.1</v>
       </c>
       <c r="B111">
-        <v>193270.5823252132</v>
+        <v>325859.4960196645</v>
       </c>
       <c r="C111">
-        <v>25715.42097101187</v>
+        <v>12937.13385213933</v>
       </c>
       <c r="D111">
-        <v>2631.373508125685</v>
+        <v>25532.02868238751</v>
       </c>
       <c r="E111">
-        <v>1133.757496250366</v>
+        <v>23835.95673836758</v>
       </c>
       <c r="F111">
-        <v>899.6418850195838</v>
+        <v>1086.924391578982</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>323.7</v>
+        <v>370.4</v>
       </c>
       <c r="B112">
-        <v>184722.6754731645</v>
+        <v>341838.5228585857</v>
       </c>
       <c r="C112">
-        <v>22052.37549629609</v>
+        <v>14488.01083063743</v>
       </c>
       <c r="D112">
-        <v>2901.665855617604</v>
+        <v>22965.5959992792</v>
       </c>
       <c r="E112">
-        <v>867.5149925007318</v>
+        <v>29819.64450363789</v>
       </c>
       <c r="F112">
-        <v>1136.967209499452</v>
+        <v>538.1917381959688</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>325.9</v>
+        <v>372.7</v>
       </c>
       <c r="B113">
-        <v>190542.0689190308</v>
+        <v>350127.5496975068</v>
       </c>
       <c r="C113">
-        <v>18902.94069439407</v>
+        <v>13178.88780913553</v>
       </c>
       <c r="D113">
-        <v>2928.032448870745</v>
+        <v>27879.16331617087</v>
       </c>
       <c r="E113">
-        <v>1218.065641088037</v>
+        <v>36763.33226890821</v>
       </c>
       <c r="F113">
-        <v>953.9740416106276</v>
+        <v>969.459084812954</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>328.5</v>
+        <v>374.9</v>
       </c>
       <c r="B114">
-        <v>193312.2611732366</v>
+        <v>382768.3579782139</v>
       </c>
       <c r="C114">
-        <v>15849.0632012371</v>
+        <v>14340.1614407424</v>
       </c>
       <c r="D114">
-        <v>2560.102059079003</v>
+        <v>30316.92335841509</v>
       </c>
       <c r="E114">
-        <v>401.4436803275808</v>
+        <v>46152.94665307981</v>
       </c>
       <c r="F114">
-        <v>532.2548431965656</v>
+        <v>809.8017641857236</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>330.9</v>
+        <v>377.6</v>
       </c>
       <c r="B115">
-        <v>197697.0540232729</v>
+        <v>424200.2590499909</v>
       </c>
       <c r="C115">
-        <v>14012.40705370761</v>
+        <v>13529.45180680538</v>
       </c>
       <c r="D115">
-        <v>2594.320160809704</v>
+        <v>32163.71977389664</v>
       </c>
       <c r="E115">
-        <v>768.4080242410037</v>
+        <v>58502.92794274497</v>
       </c>
       <c r="F115">
-        <v>919.8986600451218</v>
+        <v>924.7677797795773</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>333.1</v>
+        <v>379.9</v>
       </c>
       <c r="B116">
-        <v>203736.4474691393</v>
+        <v>468739.285888912</v>
       </c>
       <c r="C116">
-        <v>14682.97225180557</v>
+        <v>15660.32878530346</v>
       </c>
       <c r="D116">
-        <v>2110.686754062841</v>
+        <v>36727.28709078832</v>
       </c>
       <c r="E116">
-        <v>1238.958672828308</v>
+        <v>75306.61570801526</v>
       </c>
       <c r="F116">
-        <v>756.9054921562995</v>
+        <v>796.0351263965626</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>335.4</v>
+        <v>382.1</v>
       </c>
       <c r="B117">
-        <v>205318.5406170905</v>
+        <v>512760.0941696193</v>
       </c>
       <c r="C117">
-        <v>13999.92677708981</v>
+        <v>12811.60241691033</v>
       </c>
       <c r="D117">
-        <v>2390.979101554763</v>
+        <v>37645.04713303251</v>
       </c>
       <c r="E117">
-        <v>952.7161690786743</v>
+        <v>97466.23009218687</v>
       </c>
       <c r="F117">
-        <v>924.2308166361674</v>
+        <v>1326.377805769332</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>337.6</v>
+        <v>384.4</v>
       </c>
       <c r="B118">
-        <v>208307.9340629571</v>
+        <v>577369.1210085403</v>
       </c>
       <c r="C118">
-        <v>13310.49197518776</v>
+        <v>13792.47939540844</v>
       </c>
       <c r="D118">
-        <v>2297.3456948079</v>
+        <v>44778.61444992419</v>
       </c>
       <c r="E118">
-        <v>1473.266817665979</v>
+        <v>122079.9178574572</v>
       </c>
       <c r="F118">
-        <v>1021.237648747343</v>
+        <v>987.6451523863175</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>340.3</v>
+        <v>386.7</v>
       </c>
       <c r="B119">
-        <v>214600.8260192478</v>
+        <v>665178.1478474613</v>
       </c>
       <c r="C119">
-        <v>14143.00380921708</v>
+        <v>15173.35637390652</v>
       </c>
       <c r="D119">
-        <v>1283.341059254941</v>
+        <v>49372.18176681589</v>
       </c>
       <c r="E119">
-        <v>1459.85170456858</v>
+        <v>151813.6056227275</v>
       </c>
       <c r="F119">
-        <v>1199.83694270197</v>
+        <v>858.9124990033047</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>342.2</v>
+        <v>388.9</v>
       </c>
       <c r="B120">
-        <v>212792.1203588597</v>
+        <v>768178.9561281686</v>
       </c>
       <c r="C120">
-        <v>13384.40102575624</v>
+        <v>14804.63000551339</v>
       </c>
       <c r="D120">
-        <v>2257.930389791742</v>
+        <v>56099.9418090601</v>
       </c>
       <c r="E120">
-        <v>2400.781810166711</v>
+        <v>180203.2200068991</v>
       </c>
       <c r="F120">
-        <v>855.8882977070773</v>
+        <v>1489.255178376072</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>344.8</v>
+        <v>391.2</v>
       </c>
       <c r="B121">
-        <v>209762.3126130654</v>
+        <v>846737.9829670897</v>
       </c>
       <c r="C121">
-        <v>13330.52353259928</v>
+        <v>14895.50698401147</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>60393.50912595178</v>
       </c>
       <c r="E121">
-        <v>3124.159849406251</v>
+        <v>199346.9077721694</v>
       </c>
       <c r="F121">
-        <v>734.1690992930153</v>
+        <v>1380.52252499306</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>347.1</v>
+        <v>393.8</v>
       </c>
       <c r="B122">
-        <v>225394.4057610168</v>
+        <v>920361.6654806528</v>
       </c>
       <c r="C122">
-        <v>12747.47805788351</v>
+        <v>16175.19400318324</v>
       </c>
       <c r="D122">
-        <v>2210.292347491919</v>
+        <v>69594.49826678586</v>
       </c>
       <c r="E122">
-        <v>3327.917345656617</v>
+        <v>219182.8156807359</v>
       </c>
       <c r="F122">
-        <v>801.494423772883</v>
+        <v>1244.563873342696</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>349.6</v>
+        <v>396</v>
       </c>
       <c r="B123">
-        <v>226551.8983131377</v>
+        <v>947692.4737613598</v>
       </c>
       <c r="C123">
-        <v>12887.21123754029</v>
+        <v>14166.46763479011</v>
       </c>
       <c r="D123">
-        <v>1478.436203461399</v>
+        <v>78042.25830903005</v>
       </c>
       <c r="E123">
-        <v>3478.0885372331</v>
+        <v>233052.4300649074</v>
       </c>
       <c r="F123">
-        <v>1169.456732990129</v>
+        <v>1214.906552715465</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>351.9</v>
+        <v>398.3</v>
       </c>
       <c r="B124">
-        <v>233753.991461089</v>
+        <v>1002601.500600281</v>
       </c>
       <c r="C124">
-        <v>12114.16576282453</v>
+        <v>16727.34461328819</v>
       </c>
       <c r="D124">
-        <v>1028.728550953321</v>
+        <v>89225.82562592175</v>
       </c>
       <c r="E124">
-        <v>5491.846033483466</v>
+        <v>247786.1178301778</v>
       </c>
       <c r="F124">
-        <v>726.7820574699954</v>
+        <v>1286.173899332452</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>354.2</v>
+        <v>400.6</v>
       </c>
       <c r="B125">
-        <v>235196.0846090404</v>
+        <v>1024040.527439202</v>
       </c>
       <c r="C125">
-        <v>12621.12028810876</v>
+        <v>17588.22159178629</v>
       </c>
       <c r="D125">
-        <v>1519.020898445255</v>
+        <v>102769.3929428134</v>
       </c>
       <c r="E125">
-        <v>6755.603529733832</v>
+        <v>248359.8055954481</v>
       </c>
       <c r="F125">
-        <v>654.1073819498633</v>
+        <v>1057.441245949438</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>356.5</v>
+        <v>403.2</v>
       </c>
       <c r="B126">
-        <v>254518.1777569916</v>
+        <v>1005494.209952765</v>
       </c>
       <c r="C126">
-        <v>13178.074813393</v>
+        <v>16147.90861095804</v>
       </c>
       <c r="D126">
-        <v>2829.313245937159</v>
+        <v>112640.3820836475</v>
       </c>
       <c r="E126">
-        <v>7959.361025984194</v>
+        <v>241035.7135040145</v>
       </c>
       <c r="F126">
-        <v>981.4327064297311</v>
+        <v>1521.482594299074</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>358.7</v>
+        <v>405.5</v>
       </c>
       <c r="B127">
-        <v>249307.571202858</v>
+        <v>978733.2367916862</v>
       </c>
       <c r="C127">
-        <v>12038.64001149096</v>
+        <v>16478.78558945614</v>
       </c>
       <c r="D127">
-        <v>985.6798391903176</v>
+        <v>130473.9494005392</v>
       </c>
       <c r="E127">
-        <v>8819.911674571498</v>
+        <v>248529.4012692848</v>
       </c>
       <c r="F127">
-        <v>998.4395385409071</v>
+        <v>1122.749940916061</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>361.3</v>
+        <v>407.7</v>
       </c>
       <c r="B128">
-        <v>265217.7634570638</v>
+        <v>998004.0450723934</v>
       </c>
       <c r="C128">
-        <v>13584.76251833399</v>
+        <v>17410.05922106301</v>
       </c>
       <c r="D128">
-        <v>2297.749449398558</v>
+        <v>151501.7094427834</v>
       </c>
       <c r="E128">
-        <v>12023.28971381105</v>
+        <v>248169.0156534564</v>
       </c>
       <c r="F128">
-        <v>716.720340126845</v>
+        <v>1363.092620288829</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>363.6</v>
+        <v>409.9</v>
       </c>
       <c r="B129">
-        <v>274929.8566050152</v>
+        <v>1013934.853353101</v>
       </c>
       <c r="C129">
-        <v>13951.71704361823</v>
+        <v>16881.33285266988</v>
       </c>
       <c r="D129">
-        <v>3878.041796890491</v>
+        <v>171349.4694850276</v>
       </c>
       <c r="E129">
-        <v>15027.04721006141</v>
+        <v>257878.6300376281</v>
       </c>
       <c r="F129">
-        <v>914.0456646067112</v>
+        <v>1193.435299661598</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>365.9</v>
+        <v>412.2</v>
       </c>
       <c r="B130">
-        <v>280221.9497529665</v>
+        <v>1071423.880192022</v>
       </c>
       <c r="C130">
-        <v>12318.67156890246</v>
+        <v>16692.20983116798</v>
       </c>
       <c r="D130">
-        <v>2998.334144382417</v>
+        <v>198043.0368019193</v>
       </c>
       <c r="E130">
-        <v>17980.80470631178</v>
+        <v>303342.3178028985</v>
       </c>
       <c r="F130">
-        <v>891.3709890865791</v>
+        <v>1354.702646278585</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>368.1</v>
+        <v>414.8</v>
       </c>
       <c r="B131">
-        <v>300361.343198833</v>
+        <v>1251787.562705585</v>
       </c>
       <c r="C131">
-        <v>12129.23676700042</v>
+        <v>17381.89685033973</v>
       </c>
       <c r="D131">
-        <v>6104.700737635554</v>
+        <v>230144.0259427533</v>
       </c>
       <c r="E131">
-        <v>23411.35535489908</v>
+        <v>394428.2257114649</v>
       </c>
       <c r="F131">
-        <v>1118.377821197757</v>
+        <v>1488.743994628222</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>370.4</v>
+        <v>417.1</v>
       </c>
       <c r="B132">
-        <v>315983.4363467842</v>
+        <v>1462446.589544506</v>
       </c>
       <c r="C132">
-        <v>13606.19129228467</v>
+        <v>18412.77382883781</v>
       </c>
       <c r="D132">
-        <v>3034.993085127477</v>
+        <v>270807.593259645</v>
       </c>
       <c r="E132">
-        <v>29375.11285114945</v>
+        <v>648971.9134767351</v>
       </c>
       <c r="F132">
-        <v>555.7031456776228</v>
+        <v>2340.011341245209</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>372.7</v>
+        <v>419</v>
       </c>
       <c r="B133">
-        <v>323915.5294947355</v>
+        <v>1503852.742150571</v>
       </c>
       <c r="C133">
-        <v>12223.14581756889</v>
+        <v>23045.23741977102</v>
       </c>
       <c r="D133">
-        <v>7445.285432619396</v>
+        <v>313767.9314779468</v>
       </c>
       <c r="E133">
-        <v>36298.87034739981</v>
+        <v>707879.3077176106</v>
       </c>
       <c r="F133">
-        <v>973.0284701574908</v>
+        <v>1687.580018885328</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>374.9</v>
+        <v>421.6</v>
       </c>
       <c r="B134">
-        <v>356214.922940602</v>
+        <v>1504066.424664134</v>
       </c>
       <c r="C134">
-        <v>13313.71101566687</v>
+        <v>18614.92443894278</v>
       </c>
       <c r="D134">
-        <v>9401.652025872536</v>
+        <v>314048.9206187809</v>
       </c>
       <c r="E134">
-        <v>45669.42099598712</v>
+        <v>349635.2156261771</v>
       </c>
       <c r="F134">
-        <v>800.0353022686668</v>
+        <v>1201.621367234964</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>377.6</v>
+        <v>423.9</v>
       </c>
       <c r="B135">
-        <v>397227.8148968926</v>
+        <v>1441305.451503055</v>
       </c>
       <c r="C135">
-        <v>12416.22284969617</v>
+        <v>17685.80141744087</v>
       </c>
       <c r="D135">
-        <v>10657.64739031957</v>
+        <v>322382.4879356726</v>
       </c>
       <c r="E135">
-        <v>57996.00588288971</v>
+        <v>233918.9033914474</v>
       </c>
       <c r="F135">
-        <v>898.6345962232947</v>
+        <v>1352.888713851949</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>379.9</v>
+        <v>426.1</v>
       </c>
       <c r="B136">
-        <v>441409.9080448439</v>
+        <v>1117236.259783763</v>
       </c>
       <c r="C136">
-        <v>14473.17737498042</v>
+        <v>18347.07504904774</v>
       </c>
       <c r="D136">
-        <v>14717.9397378115</v>
+        <v>328200.2479779167</v>
       </c>
       <c r="E136">
-        <v>74779.76337914009</v>
+        <v>151718.517775619</v>
       </c>
       <c r="F136">
-        <v>755.9599207031608</v>
+        <v>1413.231393224719</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>382.1</v>
+        <v>428.4</v>
       </c>
       <c r="B137">
-        <v>485089.3014907103</v>
+        <v>834235.2866226835</v>
       </c>
       <c r="C137">
-        <v>11553.74257307838</v>
+        <v>17507.95202754584</v>
       </c>
       <c r="D137">
-        <v>15154.30633106463</v>
+        <v>328013.8152948085</v>
       </c>
       <c r="E137">
-        <v>96920.31402772739</v>
+        <v>100942.2055408893</v>
       </c>
       <c r="F137">
-        <v>1272.966752814339</v>
+        <v>1294.498739841704</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>384.4</v>
+        <v>431</v>
       </c>
       <c r="B138">
-        <v>549341.3946386616</v>
+        <v>650458.9691362466</v>
       </c>
       <c r="C138">
-        <v>12460.69709836261</v>
+        <v>18657.63904671759</v>
       </c>
       <c r="D138">
-        <v>21784.59867855657</v>
+        <v>326184.8044356426</v>
       </c>
       <c r="E138">
-        <v>121514.0715239778</v>
+        <v>75888.11344945575</v>
       </c>
       <c r="F138">
-        <v>920.2920772942048</v>
+        <v>1118.540088191342</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>386.7</v>
+        <v>433.2</v>
       </c>
       <c r="B139">
-        <v>636793.4877866129</v>
+        <v>558729.7774169538</v>
       </c>
       <c r="C139">
-        <v>13767.65162364685</v>
+        <v>18448.91267832446</v>
       </c>
       <c r="D139">
-        <v>25874.89102604847</v>
+        <v>318122.5644778868</v>
       </c>
       <c r="E139">
-        <v>151227.8290202281</v>
+        <v>62337.72783362737</v>
       </c>
       <c r="F139">
-        <v>777.6174017740725</v>
+        <v>1088.88276756411</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>388.9</v>
+        <v>435.5</v>
       </c>
       <c r="B140">
-        <v>739452.8812324795</v>
+        <v>506508.8042558749</v>
       </c>
       <c r="C140">
-        <v>13328.21682174481</v>
+        <v>15749.78965682254</v>
       </c>
       <c r="D140">
-        <v>32121.25761930163</v>
+        <v>308666.1317947784</v>
       </c>
       <c r="E140">
-        <v>179598.3796688154</v>
+        <v>56251.41559889768</v>
       </c>
       <c r="F140">
-        <v>1394.62423388525</v>
+        <v>1470.150114181097</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>391.2</v>
+        <v>437.7</v>
       </c>
       <c r="B141">
-        <v>817654.9743804306</v>
+        <v>479909.612536582</v>
       </c>
       <c r="C141">
-        <v>13345.17134702904</v>
+        <v>17311.06328842943</v>
       </c>
       <c r="D141">
-        <v>35911.54996679354</v>
+        <v>292413.8918370226</v>
       </c>
       <c r="E141">
-        <v>198722.1371650658</v>
+        <v>52211.02998306929</v>
       </c>
       <c r="F141">
-        <v>1271.949558365118</v>
+        <v>1090.492793553866</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>393.8</v>
+        <v>439.7</v>
       </c>
       <c r="B142">
-        <v>890875.1666346366</v>
+        <v>465223.9837008613</v>
       </c>
       <c r="C142">
-        <v>14541.29385387208</v>
+        <v>16933.13022625385</v>
       </c>
       <c r="D142">
-        <v>44543.6195770018</v>
+        <v>276300.0373299719</v>
       </c>
       <c r="E142">
-        <v>218535.5152043054</v>
+        <v>46082.49760504346</v>
       </c>
       <c r="F142">
-        <v>1120.230359951054</v>
+        <v>1088.986138438202</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>396</v>
+        <v>442.5</v>
       </c>
       <c r="B143">
-        <v>917864.5600805031</v>
+        <v>438004.1033308522</v>
       </c>
       <c r="C143">
-        <v>12461.85905197005</v>
+        <v>17842.02393920805</v>
       </c>
       <c r="D143">
-        <v>52509.98617025494</v>
+        <v>257752.6410201009</v>
       </c>
       <c r="E143">
-        <v>232386.0658528926</v>
+        <v>43196.55227580733</v>
       </c>
       <c r="F143">
-        <v>1077.23719206223</v>
+        <v>1324.876821276272</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>398.3</v>
+        <v>444.8</v>
       </c>
       <c r="B144">
-        <v>972416.6532284542</v>
+        <v>410403.1301697734</v>
       </c>
       <c r="C144">
-        <v>14948.81357725427</v>
+        <v>14692.90091770613</v>
       </c>
       <c r="D144">
-        <v>63190.27851774687</v>
+        <v>227396.2083369926</v>
       </c>
       <c r="E144">
-        <v>247099.8233491431</v>
+        <v>41490.24004107764</v>
       </c>
       <c r="F144">
-        <v>1134.562516542098</v>
+        <v>726.1441678932574</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>400.6</v>
+        <v>447</v>
       </c>
       <c r="B145">
-        <v>993498.7463764056</v>
+        <v>386843.9384504806</v>
       </c>
       <c r="C145">
-        <v>15735.76810253851</v>
+        <v>15774.17454931301</v>
       </c>
       <c r="D145">
-        <v>76230.57086523877</v>
+        <v>203443.9683792369</v>
       </c>
       <c r="E145">
-        <v>247653.5808453934</v>
+        <v>37489.85442524924</v>
       </c>
       <c r="F145">
-        <v>891.8878410219661</v>
+        <v>1366.486847266027</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>403.2</v>
+        <v>449.3</v>
       </c>
       <c r="B146">
-        <v>974548.9386306113</v>
+        <v>354822.9652894016</v>
       </c>
       <c r="C146">
-        <v>14211.89060938156</v>
+        <v>15215.0515278111</v>
       </c>
       <c r="D146">
-        <v>85532.64047544706</v>
+        <v>176667.5356961286</v>
       </c>
       <c r="E146">
-        <v>240306.9588846329</v>
+        <v>36133.54219051956</v>
       </c>
       <c r="F146">
-        <v>1340.168642607902</v>
+        <v>1497.754193883014</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>405.5</v>
+        <v>451.9</v>
       </c>
       <c r="B147">
-        <v>947431.0317785627</v>
+        <v>349426.6478029647</v>
       </c>
       <c r="C147">
-        <v>14468.8451346658</v>
+        <v>17344.73854698286</v>
       </c>
       <c r="D147">
-        <v>102862.932822939</v>
+        <v>157268.5248369626</v>
       </c>
       <c r="E147">
-        <v>247780.7163808833</v>
+        <v>32629.45009908601</v>
       </c>
       <c r="F147">
-        <v>927.4939670877702</v>
+        <v>1171.795542232648</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>407.7</v>
+        <v>454.2</v>
       </c>
       <c r="B148">
-        <v>966360.4252244291</v>
+        <v>314615.6746418858</v>
       </c>
       <c r="C148">
-        <v>15329.41033276376</v>
+        <v>16525.61552548095</v>
       </c>
       <c r="D148">
-        <v>123409.2994161921</v>
+        <v>140922.0921538543</v>
       </c>
       <c r="E148">
-        <v>247401.2670294706</v>
+        <v>30443.13786435632</v>
       </c>
       <c r="F148">
-        <v>1154.500799198946</v>
+        <v>883.0628888496356</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>409.9</v>
+        <v>456.5</v>
       </c>
       <c r="B149">
-        <v>981949.8186702956</v>
+        <v>298194.7014808068</v>
       </c>
       <c r="C149">
-        <v>14729.97553086173</v>
+        <v>15446.49250397905</v>
       </c>
       <c r="D149">
-        <v>142775.6660094453</v>
+        <v>128185.659470746</v>
       </c>
       <c r="E149">
-        <v>257091.8176780579</v>
+        <v>28386.82562962663</v>
       </c>
       <c r="F149">
-        <v>971.507631310124</v>
+        <v>964.3302354666225</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>412.2</v>
+        <v>458.7</v>
       </c>
       <c r="B150">
-        <v>1039081.911818247</v>
+        <v>295395.509761514</v>
       </c>
       <c r="C150">
-        <v>14466.93005614596</v>
+        <v>15707.76613558592</v>
       </c>
       <c r="D150">
-        <v>168965.9583569372</v>
+        <v>125353.4195129902</v>
       </c>
       <c r="E150">
-        <v>302535.5751743082</v>
+        <v>26536.44001379824</v>
       </c>
       <c r="F150">
-        <v>1118.832955789992</v>
+        <v>1224.67291483939</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>414.8</v>
+        <v>461</v>
       </c>
       <c r="B151">
-        <v>1219042.104072453</v>
+        <v>272944.5366004352</v>
       </c>
       <c r="C151">
-        <v>15073.052562989</v>
+        <v>17578.643114084</v>
       </c>
       <c r="D151">
-        <v>200498.0279671454</v>
+        <v>116166.9868298819</v>
       </c>
       <c r="E151">
-        <v>393598.9532135478</v>
+        <v>24450.12777906856</v>
       </c>
       <c r="F151">
-        <v>1237.113757375928</v>
+        <v>1155.940261456378</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>417.1</v>
+        <v>463.3</v>
       </c>
       <c r="B152">
-        <v>1429344.197220404</v>
+        <v>259733.5634393563</v>
       </c>
       <c r="C152">
-        <v>16030.00708827322</v>
+        <v>16399.52009258209</v>
       </c>
       <c r="D152">
-        <v>240658.3203146374</v>
+        <v>110930.5541467736</v>
       </c>
       <c r="E152">
-        <v>648122.7107097983</v>
+        <v>23233.81554433887</v>
       </c>
       <c r="F152">
-        <v>2074.439081855796</v>
+        <v>1377.207608073363</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>419</v>
+        <v>465.9</v>
       </c>
       <c r="B153">
-        <v>1470455.491560016</v>
+        <v>249167.2459529193</v>
       </c>
       <c r="C153">
-        <v>20601.40430481238</v>
+        <v>13789.20711175386</v>
       </c>
       <c r="D153">
-        <v>283202.9096451742</v>
+        <v>108671.5432876076</v>
       </c>
       <c r="E153">
-        <v>707013.6408153963</v>
+        <v>21009.72345290532</v>
       </c>
       <c r="F153">
-        <v>1410.490436860904</v>
+        <v>1161.248956422999</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>421.6</v>
+        <v>468.2</v>
       </c>
       <c r="B154">
-        <v>1470265.683814222</v>
+        <v>238386.2727918404</v>
       </c>
       <c r="C154">
-        <v>16087.52681165543</v>
+        <v>13140.08409025194</v>
       </c>
       <c r="D154">
-        <v>282914.9792553825</v>
+        <v>104665.1106044993</v>
       </c>
       <c r="E154">
-        <v>348747.0188546358</v>
+        <v>19523.41121817563</v>
       </c>
       <c r="F154">
-        <v>908.7712384468398</v>
+        <v>1022.516303039986</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>423.9</v>
+        <v>470.4</v>
       </c>
       <c r="B155">
-        <v>1407147.776962173</v>
+        <v>219937.0810725476</v>
       </c>
       <c r="C155">
-        <v>15084.48133693967</v>
+        <v>16181.35772185881</v>
       </c>
       <c r="D155">
-        <v>290745.2716028743</v>
+        <v>104102.8706467435</v>
       </c>
       <c r="E155">
-        <v>233010.7763508862</v>
+        <v>18463.02560234724</v>
       </c>
       <c r="F155">
-        <v>1046.096562926708</v>
+        <v>972.8589824127557</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>426.1</v>
+        <v>472.7</v>
       </c>
       <c r="B156">
-        <v>1082737.170408039</v>
+        <v>208186.1079114687</v>
       </c>
       <c r="C156">
-        <v>15675.04653503763</v>
+        <v>14892.23470035691</v>
       </c>
       <c r="D156">
-        <v>296081.6381961275</v>
+        <v>103156.4379636352</v>
       </c>
       <c r="E156">
-        <v>150791.3269994735</v>
+        <v>17136.71336761755</v>
       </c>
       <c r="F156">
-        <v>1093.103395037884</v>
+        <v>1104.126329029741</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>428.4</v>
+        <v>475</v>
       </c>
       <c r="B157">
-        <v>799379.2635559908</v>
+        <v>196635.1347503898</v>
       </c>
       <c r="C157">
-        <v>14762.00106032186</v>
+        <v>18543.11167885499</v>
       </c>
       <c r="D157">
-        <v>295391.9305436194</v>
+        <v>103220.0052805269</v>
       </c>
       <c r="E157">
-        <v>99995.08449572387</v>
+        <v>16730.40113288786</v>
       </c>
       <c r="F157">
-        <v>960.4287195177515</v>
+        <v>1265.393675646726</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>431</v>
+        <v>477.6</v>
       </c>
       <c r="B158">
-        <v>615199.4558101965</v>
+        <v>197138.8172639529</v>
       </c>
       <c r="C158">
-        <v>15828.12356716492</v>
+        <v>15082.79869802675</v>
       </c>
       <c r="D158">
-        <v>292994.0001538277</v>
+        <v>100470.9944213609</v>
       </c>
       <c r="E158">
-        <v>74918.4625349634</v>
+        <v>15516.30904145431</v>
       </c>
       <c r="F158">
-        <v>768.7095211036876</v>
+        <v>1279.435023996364</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>433.2</v>
+        <v>479.8</v>
       </c>
       <c r="B159">
-        <v>523128.8492560629</v>
+        <v>197739.62554466</v>
       </c>
       <c r="C159">
-        <v>15548.68876526287</v>
+        <v>15144.07232963361</v>
       </c>
       <c r="D159">
-        <v>284450.3667470808</v>
+        <v>98408.75446360516</v>
       </c>
       <c r="E159">
-        <v>61349.0131835507</v>
+        <v>14455.92342562592</v>
       </c>
       <c r="F159">
-        <v>725.7163532148656</v>
+        <v>1149.777703369134</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>435.5</v>
+        <v>482.1</v>
       </c>
       <c r="B160">
-        <v>470550.9424040142</v>
+        <v>182228.6523835811</v>
       </c>
       <c r="C160">
-        <v>12775.64329054711</v>
+        <v>16524.94930813171</v>
       </c>
       <c r="D160">
-        <v>274490.6590945727</v>
+        <v>99092.32178049684</v>
       </c>
       <c r="E160">
-        <v>55242.77067980108</v>
+        <v>14249.61119089623</v>
       </c>
       <c r="F160">
-        <v>1093.041677694733</v>
+        <v>1241.045049986119</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>437.7</v>
+        <v>484.4</v>
       </c>
       <c r="B161">
-        <v>443610.3358498808</v>
+        <v>170207.6792225022</v>
       </c>
       <c r="C161">
-        <v>14266.20848864506</v>
+        <v>16465.82628662981</v>
       </c>
       <c r="D161">
-        <v>257757.0256878259</v>
+        <v>96515.88909738853</v>
       </c>
       <c r="E161">
-        <v>51183.32132838838</v>
+        <v>13283.29895616654</v>
       </c>
       <c r="F161">
-        <v>700.0485098059094</v>
+        <v>1102.312396603106</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>439.7</v>
+        <v>486.7</v>
       </c>
       <c r="B162">
-        <v>428614.3298915775</v>
+        <v>178406.7060614234</v>
       </c>
       <c r="C162">
-        <v>13823.99503237048</v>
+        <v>17026.7032651279</v>
       </c>
       <c r="D162">
-        <v>241205.5407726015</v>
+        <v>96629.45641428018</v>
       </c>
       <c r="E162">
-        <v>45037.45828164957</v>
+        <v>13076.98672143686</v>
       </c>
       <c r="F162">
-        <v>686.4183571797071</v>
+        <v>1593.579743220092</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>442.5</v>
+        <v>488.9</v>
       </c>
       <c r="B163">
-        <v>400959.921549953</v>
+        <v>167027.5143421306</v>
       </c>
       <c r="C163">
-        <v>14642.89619358608</v>
+        <v>13897.97689673477</v>
       </c>
       <c r="D163">
-        <v>222045.4618912872</v>
+        <v>93237.21645652442</v>
       </c>
       <c r="E163">
-        <v>42127.25001621522</v>
+        <v>11026.60110560846</v>
       </c>
       <c r="F163">
-        <v>905.3361435030233</v>
+        <v>1283.922422592861</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>444.8</v>
+        <v>491.5</v>
       </c>
       <c r="B164">
-        <v>373002.0146979044</v>
+        <v>168441.1968556936</v>
       </c>
       <c r="C164">
-        <v>11419.85071887031</v>
+        <v>15677.66391590653</v>
       </c>
       <c r="D164">
-        <v>191185.7542387792</v>
+        <v>94468.20559735848</v>
       </c>
       <c r="E164">
-        <v>40401.00751246559</v>
+        <v>12052.50901417491</v>
       </c>
       <c r="F164">
-        <v>292.6614679828913</v>
+        <v>1197.963770942497</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>447</v>
+        <v>493.7</v>
       </c>
       <c r="B165">
-        <v>349101.4081437707</v>
+        <v>150752.0051364008</v>
       </c>
       <c r="C165">
-        <v>12430.41591696827</v>
+        <v>15168.9375475134</v>
       </c>
       <c r="D165">
-        <v>166752.1208320323</v>
+        <v>92575.96563960271</v>
       </c>
       <c r="E165">
-        <v>36381.55816105289</v>
+        <v>10132.12339834652</v>
       </c>
       <c r="F165">
-        <v>919.6683000940691</v>
+        <v>1218.306450315267</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>449.3</v>
+        <v>496</v>
       </c>
       <c r="B166">
-        <v>316723.501291722</v>
+        <v>153961.0319753218</v>
       </c>
       <c r="C166">
-        <v>11797.3704422525</v>
+        <v>11329.81452601149</v>
       </c>
       <c r="D166">
-        <v>139472.4131795242</v>
+        <v>90379.53295649438</v>
       </c>
       <c r="E166">
-        <v>35005.31565730326</v>
+        <v>10495.81116361683</v>
       </c>
       <c r="F166">
-        <v>1036.993624573935</v>
+        <v>1469.573796932252</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>451.9</v>
+        <v>498.3</v>
       </c>
       <c r="B167">
-        <v>310923.6935459278</v>
+        <v>150430.0588142429</v>
       </c>
       <c r="C167">
-        <v>13843.49294909556</v>
+        <v>14170.69150450957</v>
       </c>
       <c r="D167">
-        <v>119504.4827897325</v>
+        <v>90493.10027338607</v>
       </c>
       <c r="E167">
-        <v>31478.69369654281</v>
+        <v>9049.49892888714</v>
       </c>
       <c r="F167">
-        <v>695.2744261598714</v>
+        <v>1570.841143549239</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>454.2</v>
+        <v>500.5</v>
       </c>
       <c r="B168">
-        <v>275755.7866938792</v>
+        <v>136760.8670949501</v>
       </c>
       <c r="C168">
-        <v>12950.44747437979</v>
+        <v>15721.96513611645</v>
       </c>
       <c r="D168">
-        <v>102654.7751372244</v>
+        <v>90130.86031563027</v>
       </c>
       <c r="E168">
-        <v>29272.45119279317</v>
+        <v>9179.113313058748</v>
       </c>
       <c r="F168">
-        <v>392.5997506397391</v>
+        <v>1421.183822922007</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>456.5</v>
+        <v>503.1</v>
       </c>
       <c r="B169">
-        <v>258977.8798418305</v>
+        <v>146754.5496085131</v>
       </c>
       <c r="C169">
-        <v>11797.40199966402</v>
+        <v>15021.6521552882</v>
       </c>
       <c r="D169">
-        <v>89415.06748471633</v>
+        <v>90471.84945646433</v>
       </c>
       <c r="E169">
-        <v>27196.20868904354</v>
+        <v>8135.021221625188</v>
       </c>
       <c r="F169">
-        <v>459.9250751196071</v>
+        <v>1275.225171271645</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>458.7</v>
+        <v>505.4</v>
       </c>
       <c r="B170">
-        <v>255837.273287697</v>
+        <v>138183.5764474343</v>
       </c>
       <c r="C170">
-        <v>11987.96719776199</v>
+        <v>13862.5291337863</v>
       </c>
       <c r="D170">
-        <v>86101.43407796949</v>
+        <v>88845.41677335602</v>
       </c>
       <c r="E170">
-        <v>25326.75933763085</v>
+        <v>7388.708986895509</v>
       </c>
       <c r="F170">
-        <v>706.9319072307831</v>
+        <v>1366.492517888631</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>461</v>
+        <v>507.6</v>
       </c>
       <c r="B171">
-        <v>233029.3664356482</v>
+        <v>119404.3847281415</v>
       </c>
       <c r="C171">
-        <v>13784.92172304622</v>
+        <v>12133.80276539317</v>
       </c>
       <c r="D171">
-        <v>76411.7264254614</v>
+        <v>89173.17681560027</v>
       </c>
       <c r="E171">
-        <v>23220.51683388121</v>
+        <v>7918.323371067107</v>
       </c>
       <c r="F171">
-        <v>624.2572317106508</v>
+        <v>1296.8351972614</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>463.3</v>
+        <v>509.9</v>
       </c>
       <c r="B172">
-        <v>219461.4595835995</v>
+        <v>117943.4115670625</v>
       </c>
       <c r="C172">
-        <v>12531.87624833045</v>
+        <v>12544.67974389127</v>
       </c>
       <c r="D172">
-        <v>70672.01877295334</v>
+        <v>86236.74413249192</v>
       </c>
       <c r="E172">
-        <v>21984.27433013157</v>
+        <v>6482.011136337428</v>
       </c>
       <c r="F172">
-        <v>831.5825561905187</v>
+        <v>828.1025438783872</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>465.9</v>
+        <v>512.1</v>
       </c>
       <c r="B173">
-        <v>208491.6518378053</v>
+        <v>111504.2198477697</v>
       </c>
       <c r="C173">
-        <v>9837.998755173499</v>
+        <v>11785.95337549813</v>
       </c>
       <c r="D173">
-        <v>67844.08838316158</v>
+        <v>81024.50417473612</v>
       </c>
       <c r="E173">
-        <v>19737.65236937111</v>
+        <v>7601.625520509027</v>
       </c>
       <c r="F173">
-        <v>599.8633577764549</v>
+        <v>1608.445223251155</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>468.2</v>
+        <v>514.4</v>
       </c>
       <c r="B174">
-        <v>197353.7449857567</v>
+        <v>96643.24668669082</v>
       </c>
       <c r="C174">
-        <v>9114.953280457736</v>
+        <v>12896.83035399623</v>
       </c>
       <c r="D174">
-        <v>63334.38073065352</v>
+        <v>80748.07149162781</v>
       </c>
       <c r="E174">
-        <v>18231.40986562148</v>
+        <v>4665.313285779348</v>
       </c>
       <c r="F174">
-        <v>447.1886822563229</v>
+        <v>1499.712569868142</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>470.4</v>
+        <v>516.7</v>
       </c>
       <c r="B175">
-        <v>178563.1384316231</v>
+        <v>115492.273525612</v>
       </c>
       <c r="C175">
-        <v>12085.51847855569</v>
+        <v>15397.70733249431</v>
       </c>
       <c r="D175">
-        <v>62290.74732390667</v>
+        <v>83501.63880851951</v>
       </c>
       <c r="E175">
-        <v>17151.96051420879</v>
+        <v>7539.00105104966</v>
       </c>
       <c r="F175">
-        <v>384.1955143674988</v>
+        <v>1390.979916485129</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>472.7</v>
+        <v>519.2</v>
       </c>
       <c r="B176">
-        <v>166455.2315795743</v>
+        <v>107197.737480961</v>
       </c>
       <c r="C176">
-        <v>10722.47300383993</v>
+        <v>14717.79100477484</v>
       </c>
       <c r="D176">
-        <v>60841.03967139858</v>
+        <v>81596.82067470612</v>
       </c>
       <c r="E176">
-        <v>15805.71801045915</v>
+        <v>6350.835578517387</v>
       </c>
       <c r="F176">
-        <v>501.5208388473666</v>
+        <v>1574.096597590548</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>475</v>
+        <v>521.2</v>
       </c>
       <c r="B177">
-        <v>154547.3247275257</v>
+        <v>108942.1086452403</v>
       </c>
       <c r="C177">
-        <v>14299.42752912416</v>
+        <v>14939.85794259926</v>
       </c>
       <c r="D177">
-        <v>60401.33201889048</v>
+        <v>83202.9661676554</v>
       </c>
       <c r="E177">
-        <v>15379.47550670952</v>
+        <v>6162.303200491577</v>
       </c>
       <c r="F177">
-        <v>648.8461633272327</v>
+        <v>1572.589942474885</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>477.6</v>
+        <v>523.8</v>
       </c>
       <c r="B178">
-        <v>154647.5169817315</v>
+        <v>116545.7911588032</v>
       </c>
       <c r="C178">
-        <v>10755.5500359672</v>
+        <v>12869.54496177105</v>
       </c>
       <c r="D178">
-        <v>57083.40162909875</v>
+        <v>78903.95530848946</v>
       </c>
       <c r="E178">
-        <v>14142.85354594906</v>
+        <v>3958.211109058025</v>
       </c>
       <c r="F178">
-        <v>647.1269649131707</v>
+        <v>2056.63129082452</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>479.8</v>
+        <v>526</v>
       </c>
       <c r="B179">
-        <v>154906.9104275979</v>
+        <v>102146.5994395104</v>
       </c>
       <c r="C179">
-        <v>10746.11523406518</v>
+        <v>14800.8185933779</v>
       </c>
       <c r="D179">
-        <v>54539.76822235191</v>
+        <v>79301.71535073366</v>
       </c>
       <c r="E179">
-        <v>13063.40419453637</v>
+        <v>4907.825493229628</v>
       </c>
       <c r="F179">
-        <v>504.1337970243485</v>
+        <v>1146.973970197288</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>482.1</v>
+        <v>528.3</v>
       </c>
       <c r="B180">
-        <v>139039.0035755492</v>
+        <v>110765.6262784315</v>
       </c>
       <c r="C180">
-        <v>12053.06975934939</v>
+        <v>12841.695571876</v>
       </c>
       <c r="D180">
-        <v>54720.06056984381</v>
+        <v>76895.28266762535</v>
       </c>
       <c r="E180">
-        <v>12837.16169078674</v>
+        <v>4951.513258499945</v>
       </c>
       <c r="F180">
-        <v>581.4591215042144</v>
+        <v>1808.241316814275</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>484.4</v>
+        <v>530.9</v>
       </c>
       <c r="B181">
-        <v>126661.0967235005</v>
+        <v>107279.3087919946</v>
       </c>
       <c r="C181">
-        <v>11920.02428463365</v>
+        <v>12311.38259104775</v>
       </c>
       <c r="D181">
-        <v>51640.35291733572</v>
+        <v>78186.27180845942</v>
       </c>
       <c r="E181">
-        <v>11850.9191870371</v>
+        <v>5157.421167066389</v>
       </c>
       <c r="F181">
-        <v>428.7844459840808</v>
+        <v>1672.282665163911</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>486.7</v>
+        <v>532.8</v>
       </c>
       <c r="B182">
-        <v>134503.1898714518</v>
+        <v>109205.4613980598</v>
       </c>
       <c r="C182">
-        <v>12406.97880991788</v>
+        <v>16813.84618198097</v>
       </c>
       <c r="D182">
-        <v>51250.64526482765</v>
+        <v>77896.61002676126</v>
       </c>
       <c r="E182">
-        <v>11624.67668328747</v>
+        <v>4934.815407941868</v>
       </c>
       <c r="F182">
-        <v>906.1097704639485</v>
+        <v>1719.85134280403</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>488.9</v>
+        <v>535.4</v>
       </c>
       <c r="B183">
-        <v>122782.5833173183</v>
+        <v>102689.1439116229</v>
       </c>
       <c r="C183">
-        <v>9207.544008015841</v>
+        <v>14263.53320115272</v>
       </c>
       <c r="D183">
-        <v>47377.01185808081</v>
+        <v>79357.59916759534</v>
       </c>
       <c r="E183">
-        <v>9555.227331874772</v>
+        <v>5360.723316508308</v>
       </c>
       <c r="F183">
-        <v>583.1166025751263</v>
+        <v>1573.892691153666</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>491.5</v>
+        <v>537.6</v>
       </c>
       <c r="B184">
-        <v>123792.7755715242</v>
+        <v>98079.95219233005</v>
       </c>
       <c r="C184">
-        <v>10903.66651485888</v>
+        <v>17384.80683275958</v>
       </c>
       <c r="D184">
-        <v>48039.08146828906</v>
+        <v>79725.35920983955</v>
       </c>
       <c r="E184">
-        <v>10558.6053711143</v>
+        <v>4940.337700679911</v>
       </c>
       <c r="F184">
-        <v>481.3974041610625</v>
+        <v>1284.235370526436</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>493.7</v>
+        <v>539.9</v>
       </c>
       <c r="B185">
-        <v>105762.1690173905</v>
+        <v>96108.97903125109</v>
       </c>
       <c r="C185">
-        <v>10324.23171295685</v>
+        <v>16015.68381125769</v>
       </c>
       <c r="D185">
-        <v>45665.44806154221</v>
+        <v>75148.9265267312</v>
       </c>
       <c r="E185">
-        <v>8619.156019701617</v>
+        <v>5084.025465950228</v>
       </c>
       <c r="F185">
-        <v>488.4042362722403</v>
+        <v>1265.502717143423</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>496</v>
+        <v>542.5</v>
       </c>
       <c r="B186">
-        <v>108614.2621653418</v>
+        <v>90902.66154481412</v>
       </c>
       <c r="C186">
-        <v>6411.186238241072</v>
+        <v>14975.37083042944</v>
       </c>
       <c r="D186">
-        <v>42965.74040903412</v>
+        <v>75539.91566756531</v>
       </c>
       <c r="E186">
-        <v>8962.913515951976</v>
+        <v>5749.933374516668</v>
       </c>
       <c r="F186">
-        <v>725.7295607521064</v>
+        <v>1559.544065493059</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>498.3</v>
+        <v>544.7</v>
       </c>
       <c r="B187">
-        <v>104726.3553132932</v>
+        <v>89273.46982552129</v>
       </c>
       <c r="C187">
-        <v>9178.140763525305</v>
+        <v>16306.64446203629</v>
       </c>
       <c r="D187">
-        <v>42576.03275652604</v>
+        <v>73837.67570980951</v>
       </c>
       <c r="E187">
-        <v>7496.671012202341</v>
+        <v>5109.547758688271</v>
       </c>
       <c r="F187">
-        <v>813.0548852319741</v>
+        <v>1849.886744865829</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>500.5</v>
+        <v>547</v>
       </c>
       <c r="B188">
-        <v>90715.74875915957</v>
+        <v>92672.49666444243</v>
       </c>
       <c r="C188">
-        <v>10658.70596162328</v>
+        <v>14277.52144053439</v>
       </c>
       <c r="D188">
-        <v>41732.39934977917</v>
+        <v>73431.2430267012</v>
       </c>
       <c r="E188">
-        <v>7607.221660789646</v>
+        <v>4233.235523958591</v>
       </c>
       <c r="F188">
-        <v>650.0617173431519</v>
+        <v>1451.154091482814</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>503.1</v>
+        <v>549.2</v>
       </c>
       <c r="B189">
-        <v>100305.9410133654</v>
+        <v>83663.30494514959</v>
       </c>
       <c r="C189">
-        <v>9874.828468466319</v>
+        <v>16848.79507214126</v>
       </c>
       <c r="D189">
-        <v>41504.46895998745</v>
+        <v>71819.0030689454</v>
       </c>
       <c r="E189">
-        <v>6540.59970002919</v>
+        <v>4572.849908130193</v>
       </c>
       <c r="F189">
-        <v>488.3425189290881</v>
+        <v>1561.496770855584</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>505.4</v>
+        <v>551.5</v>
       </c>
       <c r="B190">
-        <v>91378.03416131664</v>
+        <v>81952.33178407075</v>
       </c>
       <c r="C190">
-        <v>8641.782993750556</v>
+        <v>14289.67205063936</v>
       </c>
       <c r="D190">
-        <v>39374.76130747936</v>
+        <v>74072.57038583708</v>
       </c>
       <c r="E190">
-        <v>5774.35719627956</v>
+        <v>4656.537673400511</v>
       </c>
       <c r="F190">
-        <v>565.6678434089561</v>
+        <v>1602.764117472569</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>507.6</v>
+        <v>553.7</v>
       </c>
       <c r="B191">
-        <v>72257.42760718316</v>
+        <v>81503.14006477791</v>
       </c>
       <c r="C191">
-        <v>6842.348191848511</v>
+        <v>13530.94568224621</v>
       </c>
       <c r="D191">
-        <v>39221.12790073251</v>
+        <v>71390.33042808129</v>
       </c>
       <c r="E191">
-        <v>6284.907844866861</v>
+        <v>3806.152057572113</v>
       </c>
       <c r="F191">
-        <v>482.6746755201339</v>
+        <v>1363.10679684534</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>509.9</v>
+        <v>556.3</v>
       </c>
       <c r="B192">
-        <v>70439.52075513441</v>
+        <v>79116.82257834083</v>
       </c>
       <c r="C192">
-        <v>7179.302717132762</v>
+        <v>12440.632701418</v>
       </c>
       <c r="D192">
-        <v>35781.42024822444</v>
+        <v>68721.31956891537</v>
       </c>
       <c r="E192">
-        <v>4828.66534111723</v>
+        <v>4522.059966138562</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>1747.148145194974</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>512.1</v>
+        <v>558.5</v>
       </c>
       <c r="B193">
-        <v>63658.91420100092</v>
+        <v>76107.63085904799</v>
       </c>
       <c r="C193">
-        <v>6349.867915230704</v>
+        <v>12911.90633302485</v>
       </c>
       <c r="D193">
-        <v>30087.78684147757</v>
+        <v>71339.07961115958</v>
       </c>
       <c r="E193">
-        <v>5929.215989704531</v>
+        <v>4581.674350310164</v>
       </c>
       <c r="F193">
-        <v>767.0068321111776</v>
+        <v>1777.490824567744</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>514.4</v>
+        <v>560.8</v>
       </c>
       <c r="B194">
-        <v>48441.00734895218</v>
+        <v>87076.65769796915</v>
       </c>
       <c r="C194">
-        <v>7386.822440514955</v>
+        <v>14662.78331152295</v>
       </c>
       <c r="D194">
-        <v>29308.07918896947</v>
+        <v>69292.64692805127</v>
       </c>
       <c r="E194">
-        <v>2972.973485954902</v>
+        <v>3815.362115580481</v>
       </c>
       <c r="F194">
-        <v>644.3321565910455</v>
+        <v>1648.758171184731</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>516.7</v>
+        <v>563.1</v>
       </c>
       <c r="B195">
-        <v>66933.10049690344</v>
+        <v>80305.68453689032</v>
       </c>
       <c r="C195">
-        <v>9813.776965799174</v>
+        <v>16773.66029002103</v>
       </c>
       <c r="D195">
-        <v>31558.3715364614</v>
+        <v>69506.21424494294</v>
       </c>
       <c r="E195">
-        <v>5826.730982205259</v>
+        <v>4529.049880850794</v>
       </c>
       <c r="F195">
-        <v>521.6574810709114</v>
+        <v>1760.025517801716</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>519.2</v>
+        <v>565.3</v>
       </c>
       <c r="B196">
-        <v>58250.59304902441</v>
+        <v>79986.49281759745</v>
       </c>
       <c r="C196">
-        <v>9053.510145455952</v>
+        <v>13834.93392162792</v>
       </c>
       <c r="D196">
-        <v>29106.5153924309</v>
+        <v>68723.97428718716</v>
       </c>
       <c r="E196">
-        <v>4616.902173781746</v>
+        <v>4938.664265022401</v>
       </c>
       <c r="F196">
-        <v>689.6197902881595</v>
+        <v>1860.368197174486</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>521.2</v>
+        <v>567.9</v>
       </c>
       <c r="B197">
-        <v>59684.58709072122</v>
+        <v>85630.1753311605</v>
       </c>
       <c r="C197">
-        <v>9211.29668918137</v>
+        <v>14554.62094079967</v>
       </c>
       <c r="D197">
-        <v>30275.03047720646</v>
+        <v>70224.96342802123</v>
       </c>
       <c r="E197">
-        <v>4411.03912704293</v>
+        <v>3924.572173588845</v>
       </c>
       <c r="F197">
-        <v>675.9896376619554</v>
+        <v>1484.409545524123</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>523.8</v>
+        <v>570.1</v>
       </c>
       <c r="B198">
-        <v>66884.77934492702</v>
+        <v>79490.98361186766</v>
       </c>
       <c r="C198">
-        <v>7057.419196024442</v>
+        <v>13085.89457240653</v>
       </c>
       <c r="D198">
-        <v>25407.10008741474</v>
+        <v>69752.72347026544</v>
       </c>
       <c r="E198">
-        <v>2184.417166282478</v>
+        <v>3704.186557760448</v>
       </c>
       <c r="F198">
-        <v>1144.270439247894</v>
+        <v>1954.752224896892</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>526</v>
+        <v>572.4</v>
       </c>
       <c r="B199">
-        <v>52144.17279079354</v>
+        <v>76150.0104507887</v>
       </c>
       <c r="C199">
-        <v>8917.984394122381</v>
+        <v>15326.77155090464</v>
       </c>
       <c r="D199">
-        <v>25323.46668066787</v>
+        <v>68686.29078715712</v>
       </c>
       <c r="E199">
-        <v>3114.967814869783</v>
+        <v>4677.874323030765</v>
       </c>
       <c r="F199">
-        <v>221.2772713590714</v>
+        <v>1806.019571513879</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>528.3</v>
+        <v>574.7</v>
       </c>
       <c r="B200">
-        <v>60406.26593874479</v>
+        <v>75489.03728970986</v>
       </c>
       <c r="C200">
-        <v>6884.938919406634</v>
+        <v>14227.64852940272</v>
       </c>
       <c r="D200">
-        <v>22413.7590281598</v>
+        <v>69849.85810404881</v>
       </c>
       <c r="E200">
-        <v>3138.725311120149</v>
+        <v>4121.562088301073</v>
       </c>
       <c r="F200">
-        <v>868.6025958389375</v>
+        <v>1517.286918130865</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>530.9</v>
+        <v>576.9</v>
       </c>
       <c r="B201">
-        <v>56516.45819295061</v>
+        <v>71519.84557041702</v>
       </c>
       <c r="C201">
-        <v>6271.06142624967</v>
+        <v>12558.92216100959</v>
       </c>
       <c r="D201">
-        <v>23135.82863836805</v>
+        <v>69947.61814629301</v>
       </c>
       <c r="E201">
-        <v>3322.103350359693</v>
+        <v>3451.176472472685</v>
       </c>
       <c r="F201">
-        <v>716.8833974248737</v>
+        <v>1837.629597503634</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>532.8</v>
+        <v>579.5</v>
       </c>
       <c r="B202">
-        <v>58147.75253256258</v>
+        <v>76393.52808398005</v>
       </c>
       <c r="C202">
-        <v>10712.45864278883</v>
+        <v>14368.60918018134</v>
       </c>
       <c r="D202">
-        <v>22430.41796890486</v>
+        <v>67678.60728712709</v>
       </c>
       <c r="E202">
-        <v>3083.03345595782</v>
+        <v>3667.084381039124</v>
       </c>
       <c r="F202">
-        <v>752.9347524299812</v>
+        <v>1821.67094585327</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>535.4</v>
+        <v>581.7</v>
       </c>
       <c r="B203">
-        <v>51227.94478676838</v>
+        <v>80014.33636468722</v>
       </c>
       <c r="C203">
-        <v>8078.581149631867</v>
+        <v>11879.88281178821</v>
       </c>
       <c r="D203">
-        <v>23322.48757911311</v>
+        <v>70726.36732937131</v>
       </c>
       <c r="E203">
-        <v>3486.411495197364</v>
+        <v>2756.698765210727</v>
       </c>
       <c r="F203">
-        <v>591.2155540159192</v>
+        <v>2032.01362522604</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>537.6</v>
+        <v>584</v>
       </c>
       <c r="B204">
-        <v>46277.33823263479</v>
+        <v>59003.36320360837</v>
       </c>
       <c r="C204">
-        <v>11129.14634772982</v>
+        <v>12300.75979028631</v>
       </c>
       <c r="D204">
-        <v>23208.85417236626</v>
+        <v>69949.93464626298</v>
       </c>
       <c r="E204">
-        <v>3046.962143784664</v>
+        <v>3690.386530481048</v>
       </c>
       <c r="F204">
-        <v>288.222386127097</v>
+        <v>1573.280971843027</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>539.9</v>
+        <v>586.3</v>
       </c>
       <c r="B205">
-        <v>43949.43138058604</v>
+        <v>66622.3900425294</v>
       </c>
       <c r="C205">
-        <v>9686.10087301406</v>
+        <v>11471.63676878441</v>
       </c>
       <c r="D205">
-        <v>18129.14651985819</v>
+        <v>70913.50196315466</v>
       </c>
       <c r="E205">
-        <v>3170.719640035035</v>
+        <v>2944.074295751365</v>
       </c>
       <c r="F205">
-        <v>255.5477106069632</v>
+        <v>2024.548318460012</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>542.5</v>
+        <v>588.5</v>
       </c>
       <c r="B206">
-        <v>38339.62363479198</v>
+        <v>64933.19832323656</v>
       </c>
       <c r="C206">
-        <v>8562.223379857111</v>
+        <v>11122.91040039128</v>
       </c>
       <c r="D206">
-        <v>17951.21613006644</v>
+        <v>72541.26200539886</v>
       </c>
       <c r="E206">
-        <v>3814.097679274575</v>
+        <v>3333.688679922967</v>
       </c>
       <c r="F206">
-        <v>533.8285121928993</v>
+        <v>1604.89099783278</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>544.7</v>
+        <v>591.1</v>
       </c>
       <c r="B207">
-        <v>36369.01708065838</v>
+        <v>77856.88083679961</v>
       </c>
       <c r="C207">
-        <v>9822.788577955052</v>
+        <v>12092.59741956302</v>
       </c>
       <c r="D207">
-        <v>15767.58272331956</v>
+        <v>73732.25114623294</v>
       </c>
       <c r="E207">
-        <v>3154.648327861876</v>
+        <v>3219.596588489408</v>
       </c>
       <c r="F207">
-        <v>810.8353443040769</v>
+        <v>1898.932346182418</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>547</v>
+        <v>593.4</v>
       </c>
       <c r="B208">
-        <v>39411.11022860963</v>
+        <v>78305.90767572077</v>
       </c>
       <c r="C208">
-        <v>7719.743103239306</v>
+        <v>13343.47439806113</v>
       </c>
       <c r="D208">
-        <v>14857.8750708115</v>
+        <v>75415.81846312463</v>
       </c>
       <c r="E208">
-        <v>2258.405824112246</v>
+        <v>4073.284353759725</v>
       </c>
       <c r="F208">
-        <v>398.1606687839449</v>
+        <v>1700.199692799403</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>549.2</v>
+        <v>595.6</v>
       </c>
       <c r="B209">
-        <v>30060.50367447615</v>
+        <v>73736.71595642793</v>
       </c>
       <c r="C209">
-        <v>10220.30830133726</v>
+        <v>9674.748029667982</v>
       </c>
       <c r="D209">
-        <v>12764.24166406465</v>
+        <v>76003.57850536885</v>
       </c>
       <c r="E209">
-        <v>2578.956472699547</v>
+        <v>3112.898737931328</v>
       </c>
       <c r="F209">
-        <v>495.1675008951227</v>
+        <v>1830.542372172173</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>551.5</v>
+        <v>597.9</v>
       </c>
       <c r="B210">
-        <v>27992.5968224274</v>
+        <v>74455.74279534908</v>
       </c>
       <c r="C210">
-        <v>7587.262826621499</v>
+        <v>10445.62500816608</v>
       </c>
       <c r="D210">
-        <v>14514.53401155656</v>
+        <v>75647.14582226051</v>
       </c>
       <c r="E210">
-        <v>2642.713968949916</v>
+        <v>3776.586503201645</v>
       </c>
       <c r="F210">
-        <v>522.4928253749888</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="1">
-        <v>553.7</v>
-      </c>
-      <c r="B211">
-        <v>27201.99026829381</v>
-      </c>
-      <c r="C211">
-        <v>6757.828024719455</v>
-      </c>
-      <c r="D211">
-        <v>11350.9006048097</v>
-      </c>
-      <c r="E211">
-        <v>1773.264617537217</v>
-      </c>
-      <c r="F211">
-        <v>269.4996574861664</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1">
-        <v>556.3</v>
-      </c>
-      <c r="B212">
-        <v>24412.18252249974</v>
-      </c>
-      <c r="C212">
-        <v>5583.950531562527</v>
-      </c>
-      <c r="D212">
-        <v>8112.970215017966</v>
-      </c>
-      <c r="E212">
-        <v>2466.642656776767</v>
-      </c>
-      <c r="F212">
-        <v>637.780459072103</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1">
-        <v>558.5</v>
-      </c>
-      <c r="B213">
-        <v>21061.57596836614</v>
-      </c>
-      <c r="C213">
-        <v>5984.515729660469</v>
-      </c>
-      <c r="D213">
-        <v>10249.33680827112</v>
-      </c>
-      <c r="E213">
-        <v>2507.193305364071</v>
-      </c>
-      <c r="F213">
-        <v>654.7872911832806</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1">
-        <v>560.8</v>
-      </c>
-      <c r="B214">
-        <v>31673.6691163174</v>
-      </c>
-      <c r="C214">
-        <v>7661.47025494472</v>
-      </c>
-      <c r="D214">
-        <v>7699.629155763025</v>
-      </c>
-      <c r="E214">
-        <v>1720.950801614437</v>
-      </c>
-      <c r="F214">
-        <v>512.1126156631467</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1">
-        <v>563.1</v>
-      </c>
-      <c r="B215">
-        <v>24545.76226426876</v>
-      </c>
-      <c r="C215">
-        <v>9698.424780228939</v>
-      </c>
-      <c r="D215">
-        <v>7409.921503254955</v>
-      </c>
-      <c r="E215">
-        <v>2414.708297864799</v>
-      </c>
-      <c r="F215">
-        <v>609.4379401430144</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1">
-        <v>565.3</v>
-      </c>
-      <c r="B216">
-        <v>23885.15571013516</v>
-      </c>
-      <c r="C216">
-        <v>6688.989978326913</v>
-      </c>
-      <c r="D216">
-        <v>6146.288096508099</v>
-      </c>
-      <c r="E216">
-        <v>2805.258946452108</v>
-      </c>
-      <c r="F216">
-        <v>696.4447722541906</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <v>567.9</v>
-      </c>
-      <c r="B217">
-        <v>29125.34796434098</v>
-      </c>
-      <c r="C217">
-        <v>7325.112485169952</v>
-      </c>
-      <c r="D217">
-        <v>7078.357706716357</v>
-      </c>
-      <c r="E217">
-        <v>1768.636985691648</v>
-      </c>
-      <c r="F217">
-        <v>304.7255738401286</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <v>570.1</v>
-      </c>
-      <c r="B218">
-        <v>22644.7414102075</v>
-      </c>
-      <c r="C218">
-        <v>5785.677683267909</v>
-      </c>
-      <c r="D218">
-        <v>6124.724299969479</v>
-      </c>
-      <c r="E218">
-        <v>1529.187634278953</v>
-      </c>
-      <c r="F218">
-        <v>761.7324059513062</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <v>572.4</v>
-      </c>
-      <c r="B219">
-        <v>18946.83455815876</v>
-      </c>
-      <c r="C219">
-        <v>7952.632208552145</v>
-      </c>
-      <c r="D219">
-        <v>4555.016647461416</v>
-      </c>
-      <c r="E219">
-        <v>2482.945130529319</v>
-      </c>
-      <c r="F219">
-        <v>599.0577304311723</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <v>574.7</v>
-      </c>
-      <c r="B220">
-        <v>17928.92770611001</v>
-      </c>
-      <c r="C220">
-        <v>6779.586733836363</v>
-      </c>
-      <c r="D220">
-        <v>5215.308994953317</v>
-      </c>
-      <c r="E220">
-        <v>1906.70262677968</v>
-      </c>
-      <c r="F220">
-        <v>296.3830549110401</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <v>576.9</v>
-      </c>
-      <c r="B221">
-        <v>13618.32115197653</v>
-      </c>
-      <c r="C221">
-        <v>5040.151931934352</v>
-      </c>
-      <c r="D221">
-        <v>4831.675588206475</v>
-      </c>
-      <c r="E221">
-        <v>1217.253275366989</v>
-      </c>
-      <c r="F221">
-        <v>603.3898870222163</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <v>579.5</v>
-      </c>
-      <c r="B222">
-        <v>18088.51340618234</v>
-      </c>
-      <c r="C222">
-        <v>6766.274438777392</v>
-      </c>
-      <c r="D222">
-        <v>1993.745198414734</v>
-      </c>
-      <c r="E222">
-        <v>1410.631314606529</v>
-      </c>
-      <c r="F222">
-        <v>571.6706886081543</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <v>581.7</v>
-      </c>
-      <c r="B223">
-        <v>21367.90685204875</v>
-      </c>
-      <c r="C223">
-        <v>4206.839636875348</v>
-      </c>
-      <c r="D223">
-        <v>4560.11179166787</v>
-      </c>
-      <c r="E223">
-        <v>481.1819631938342</v>
-      </c>
-      <c r="F223">
-        <v>768.6775207193318</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <v>584</v>
-      </c>
-      <c r="B224">
-        <v>0</v>
-      </c>
-      <c r="C224">
-        <v>4553.794162159585</v>
-      </c>
-      <c r="D224">
-        <v>3280.404139159793</v>
-      </c>
-      <c r="E224">
-        <v>1394.939459444201</v>
-      </c>
-      <c r="F224">
-        <v>296.0028451991982</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <v>586.3</v>
-      </c>
-      <c r="B225">
-        <v>7262.093147951367</v>
-      </c>
-      <c r="C225">
-        <v>3650.748687443821</v>
-      </c>
-      <c r="D225">
-        <v>3740.696486651716</v>
-      </c>
-      <c r="E225">
-        <v>628.6969556945705</v>
-      </c>
-      <c r="F225">
-        <v>733.3281696790661</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <v>588.5</v>
-      </c>
-      <c r="B226">
-        <v>5231.486593817775</v>
-      </c>
-      <c r="C226">
-        <v>3231.313885541777</v>
-      </c>
-      <c r="D226">
-        <v>4887.063079904852</v>
-      </c>
-      <c r="E226">
-        <v>999.2476042818716</v>
-      </c>
-      <c r="F226">
-        <v>300.3350017902419</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <v>591.1</v>
-      </c>
-      <c r="B227">
-        <v>17751.67884802358</v>
-      </c>
-      <c r="C227">
-        <v>4117.436392384817</v>
-      </c>
-      <c r="D227">
-        <v>5509.132690113111</v>
-      </c>
-      <c r="E227">
-        <v>862.6256435214118</v>
-      </c>
-      <c r="F227">
-        <v>578.6158033761799</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1">
-        <v>593.4</v>
-      </c>
-      <c r="B228">
-        <v>17843.77199597484</v>
-      </c>
-      <c r="C228">
-        <v>5294.390917669068</v>
-      </c>
-      <c r="D228">
-        <v>6689.425037605048</v>
-      </c>
-      <c r="E228">
-        <v>1696.383139771785</v>
-      </c>
-      <c r="F228">
-        <v>365.941127856046</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1">
-        <v>595.6</v>
-      </c>
-      <c r="B229">
-        <v>12933.16544184136</v>
-      </c>
-      <c r="C229">
-        <v>1554.956115767024</v>
-      </c>
-      <c r="D229">
-        <v>6795.79163085817</v>
-      </c>
-      <c r="E229">
-        <v>716.9337883590824</v>
-      </c>
-      <c r="F229">
-        <v>482.9479599672238</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="1">
-        <v>597.9</v>
-      </c>
-      <c r="B230">
-        <v>13295.25858979261</v>
-      </c>
-      <c r="C230">
-        <v>2251.91064105126</v>
-      </c>
-      <c r="D230">
-        <v>5936.083978350107</v>
-      </c>
-      <c r="E230">
-        <v>1360.691284609448</v>
-      </c>
-      <c r="F230">
-        <v>940.2732844470918</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1">
-        <v>600.1</v>
-      </c>
-      <c r="B231">
-        <v>19534.65203565914</v>
-      </c>
-      <c r="C231">
-        <v>962.4758391492169</v>
-      </c>
-      <c r="D231">
-        <v>4362.450571603229</v>
-      </c>
-      <c r="E231">
-        <v>781.2419331967531</v>
-      </c>
-      <c r="F231">
-        <v>757.2801165582675</v>
+        <v>2301.80971878916</v>
       </c>
     </row>
   </sheetData>
